--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124503F9-CC79-4E10-8C77-FB1398A9729D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CF2687-54F1-4708-B473-956B66AB0ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -318,15 +318,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -336,6 +327,15 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -620,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -641,20 +641,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="G3" s="24" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -689,18 +689,18 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26">
         <v>16000</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30">
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27">
         <f>26000+10000-10000</f>
         <v>26000</v>
       </c>
@@ -709,22 +709,22 @@
       <c r="A7" s="20">
         <v>45458</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26">
         <v>1000</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="26">
         <f>E6-D7+C7</f>
         <v>15000</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
       <c r="N7" t="s">
         <v>8</v>
       </c>
@@ -736,22 +736,22 @@
       <c r="A8" s="20">
         <v>45460</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26">
         <v>500</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="26">
         <f>E7-D8+C8</f>
         <v>14500</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
       <c r="M8" t="s">
         <v>10</v>
       </c>
@@ -770,22 +770,22 @@
       <c r="A9" s="20">
         <v>45458</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29">
+      <c r="C9" s="25"/>
+      <c r="D9" s="26">
         <v>5000</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="26">
         <f>E8-D9+C9</f>
         <v>9500</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
       <c r="M9" t="s">
         <v>11</v>
       </c>
@@ -801,90 +801,90 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -892,11 +892,11 @@
       <c r="C17" s="23"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -904,11 +904,11 @@
       <c r="C18" s="23"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -916,11 +916,11 @@
       <c r="C19" s="23"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -928,11 +928,11 @@
       <c r="C20" s="23"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -940,11 +940,11 @@
       <c r="C21" s="23"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,16 +1087,16 @@
       <c r="E6" s="11">
         <v>2000</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="N6" s="26" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="N6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="26"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1133,7 +1133,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11">
+        <v>190</v>
+      </c>
       <c r="H8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1296,7 +1298,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="17">
         <f>E35</f>
-        <v>2150</v>
+        <v>2340</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="15"/>
@@ -1353,7 +1355,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="19">
         <f>K14-K16</f>
-        <v>-2150</v>
+        <v>-2340</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="15"/>
@@ -1371,7 +1373,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="19">
         <f>K20/4</f>
-        <v>-537.5</v>
+        <v>-585</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="15"/>
@@ -1509,7 +1511,7 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" si="0"/>
-        <v>2150</v>
+        <v>2340</v>
       </c>
       <c r="N35" s="14" t="s">
         <v>25</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CF2687-54F1-4708-B473-956B66AB0ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F5D899-0D57-4942-BC09-D605672D2150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1037,7 +1037,7 @@
   <dimension ref="A5:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1157,9 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="11">
+        <v>210</v>
+      </c>
       <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
@@ -1298,7 +1300,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="17">
         <f>E35</f>
-        <v>2340</v>
+        <v>2550</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="15"/>
@@ -1355,7 +1357,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="19">
         <f>K14-K16</f>
-        <v>-2340</v>
+        <v>-2550</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="15"/>
@@ -1373,7 +1375,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="19">
         <f>K20/4</f>
-        <v>-585</v>
+        <v>-637.5</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="15"/>
@@ -1511,7 +1513,7 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" si="0"/>
-        <v>2340</v>
+        <v>2550</v>
       </c>
       <c r="N35" s="14" t="s">
         <v>25</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F5D899-0D57-4942-BC09-D605672D2150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FAAD3E-9666-43BE-937E-23678640A257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -94,9 +94,6 @@
     <t>cocktail 6 pices</t>
   </si>
   <si>
-    <t>cocktail 2 chicks</t>
-  </si>
-  <si>
     <t>Fisher Pair</t>
   </si>
   <si>
@@ -143,6 +140,15 @@
   </si>
   <si>
     <t>To Chanda bhabhi</t>
+  </si>
+  <si>
+    <t>Sold Cocktail female with 2 chicks</t>
+  </si>
+  <si>
+    <t>Lotino pair</t>
+  </si>
+  <si>
+    <t>8 pieces Albino red eyes</t>
   </si>
 </sst>
 </file>
@@ -649,7 +655,7 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="G3" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -710,7 +716,7 @@
         <v>45458</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="26">
@@ -737,7 +743,7 @@
         <v>45460</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26">
@@ -771,7 +777,7 @@
         <v>45458</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="26">
@@ -1036,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1057,7 @@
     <col min="8" max="8" width="15.7109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="9" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="9"/>
-    <col min="11" max="11" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="9" customWidth="1"/>
     <col min="14" max="14" width="29" style="4" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" style="13" customWidth="1"/>
   </cols>
@@ -1088,7 +1094,7 @@
         <v>2000</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
@@ -1113,26 +1119,30 @@
         <v>150</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="17">
         <f>D35</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="15">
-        <v>4000</v>
-      </c>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="6">
+        <v>45452</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11">
+        <v>3000</v>
+      </c>
       <c r="E8" s="11">
         <v>190</v>
       </c>
@@ -1140,16 +1150,15 @@
         <v>18</v>
       </c>
       <c r="I8" s="17">
-        <f>O35</f>
         <v>21900</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="N8" s="14" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O8" s="15">
-        <v>3500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1184,21 +1193,15 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="H10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="17">
-        <f>I9+I8</f>
-        <v>59900</v>
+        <v>56100</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="N10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="15">
-        <f>400*2</f>
-        <v>800</v>
-      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -1211,7 +1214,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="N11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O11" s="15">
         <v>2000</v>
@@ -1224,16 +1227,16 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="H12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" s="17">
         <f>I8+I9-I10</f>
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="N12" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O12" s="15">
         <v>6000</v>
@@ -1250,7 +1253,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="N13" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O13" s="15">
         <v>800</v>
@@ -1263,13 +1266,13 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="H14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="17">
         <f>K7-I12</f>
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="15"/>
@@ -1284,8 +1287,13 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
+      <c r="N15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="15">
+        <f>6000*8</f>
+        <v>48000</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -1351,13 +1359,13 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="H20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="19">
         <f>K14-K16</f>
-        <v>-2550</v>
+        <v>-3350</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="15"/>
@@ -1369,13 +1377,13 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="H21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="19">
         <f>K20/4</f>
-        <v>-637.5</v>
+        <v>-837.5</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="15"/>
@@ -1501,7 +1509,7 @@
     <row r="35" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="10">
         <f>SUM(C6:C34)</f>
@@ -1509,18 +1517,18 @@
       </c>
       <c r="D35" s="10">
         <f t="shared" ref="D35:E35" si="0">SUM(D6:D34)</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E35" s="10">
         <f t="shared" si="0"/>
         <v>2550</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O35" s="16">
         <f>SUM(O7:O34)</f>
-        <v>21900</v>
+        <v>64100</v>
       </c>
     </row>
   </sheetData>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FAAD3E-9666-43BE-937E-23678640A257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D120A0-B147-472F-BC92-B3A05F7EFFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>8 pieces Albino red eyes</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
@@ -626,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,12 +809,21 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="25"/>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>45483</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25">
+        <v>3750</v>
+      </c>
       <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="E10" s="26">
+        <f>E9-D10+C10</f>
+        <v>13250</v>
+      </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
@@ -1042,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1203,9 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="11">
+        <v>210</v>
+      </c>
       <c r="H10" s="8" t="s">
         <v>29</v>
       </c>
@@ -1308,7 +1322,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="17">
         <f>E35</f>
-        <v>2550</v>
+        <v>2760</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="15"/>
@@ -1365,7 +1379,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="19">
         <f>K14-K16</f>
-        <v>-3350</v>
+        <v>-3560</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="15"/>
@@ -1383,7 +1397,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="19">
         <f>K20/4</f>
-        <v>-837.5</v>
+        <v>-890</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="15"/>
@@ -1521,7 +1535,7 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" si="0"/>
-        <v>2550</v>
+        <v>2760</v>
       </c>
       <c r="N35" s="14" t="s">
         <v>24</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D120A0-B147-472F-BC92-B3A05F7EFFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9771E8AC-6434-410D-BE3B-7FCE69ABA16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -629,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1222,9 @@
       <c r="B11" s="7"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11">
+        <v>150</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1322,7 +1324,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="17">
         <f>E35</f>
-        <v>2760</v>
+        <v>2910</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="15"/>
@@ -1379,7 +1381,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="19">
         <f>K14-K16</f>
-        <v>-3560</v>
+        <v>-3710</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="15"/>
@@ -1397,7 +1399,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="19">
         <f>K20/4</f>
-        <v>-890</v>
+        <v>-927.5</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="15"/>
@@ -1535,7 +1537,7 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" si="0"/>
-        <v>2760</v>
+        <v>2910</v>
       </c>
       <c r="N35" s="14" t="s">
         <v>24</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9771E8AC-6434-410D-BE3B-7FCE69ABA16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1990B76A-0392-448F-98FD-F5298DD071D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>July</t>
+  </si>
+  <si>
+    <t>To Zubariya neighbour</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
   <dimension ref="A3:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,24 +835,42 @@
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="25"/>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>45514</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="25">
+        <v>3750</v>
+      </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="E11" s="26">
+        <f>E10-D11+C11</f>
+        <v>17000</v>
+      </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>45514</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="26">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="26">
+        <f>E11-D12+C12</f>
+        <v>14000</v>
+      </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
@@ -1055,7 +1076,7 @@
   <dimension ref="A5:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1262,9 @@
       <c r="B12" s="7"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11">
+        <v>200</v>
+      </c>
       <c r="H12" s="8" t="s">
         <v>28</v>
       </c>
@@ -1324,7 +1347,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="17">
         <f>E35</f>
-        <v>2910</v>
+        <v>3110</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="15"/>
@@ -1381,7 +1404,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="19">
         <f>K14-K16</f>
-        <v>-3710</v>
+        <v>-3910</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="15"/>
@@ -1399,7 +1422,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="19">
         <f>K20/4</f>
-        <v>-927.5</v>
+        <v>-977.5</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="15"/>
@@ -1537,7 +1560,7 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" si="0"/>
-        <v>2910</v>
+        <v>3110</v>
       </c>
       <c r="N35" s="14" t="s">
         <v>24</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1990B76A-0392-448F-98FD-F5298DD071D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C892041C-0E4F-44A4-B7CB-770DF860EA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -76,12 +76,6 @@
     <t>Expenses</t>
   </si>
   <si>
-    <t xml:space="preserve">Purchased 6 pieces Albino RE 3 months </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchased 2 pieces Albino RE 3 months </t>
-  </si>
-  <si>
     <t>Previous Stock</t>
   </si>
   <si>
@@ -155,6 +149,21 @@
   </si>
   <si>
     <t>To Zubariya neighbour</t>
+  </si>
+  <si>
+    <t>Purchased 6 pieces Albino RE 3 months (DOB 1 Feb 24)</t>
+  </si>
+  <si>
+    <t>Purchased 2 pieces Albino RE 3 months (DOB 1 Feb 24)</t>
+  </si>
+  <si>
+    <t>Purchased 3 Cremino females with DNA 8 months (DOB 1 Dec 23)</t>
+  </si>
+  <si>
+    <t>I piece parblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 Cremino females with DNA</t>
   </si>
 </sst>
 </file>
@@ -265,7 +274,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,6 +357,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -632,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +671,7 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="G3" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -722,14 +732,14 @@
         <v>45458</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="26">
         <v>1000</v>
       </c>
       <c r="E7" s="26">
-        <f>E6-D7+C7</f>
+        <f t="shared" ref="E7:E12" si="0">E6-D7+C7</f>
         <v>15000</v>
       </c>
       <c r="G7" s="28"/>
@@ -749,14 +759,14 @@
         <v>45460</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26">
         <v>500</v>
       </c>
       <c r="E8" s="26">
-        <f>E7-D8+C8</f>
+        <f t="shared" si="0"/>
         <v>14500</v>
       </c>
       <c r="G8" s="28"/>
@@ -783,14 +793,14 @@
         <v>45458</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="26">
         <v>5000</v>
       </c>
       <c r="E9" s="26">
-        <f>E8-D9+C9</f>
+        <f t="shared" si="0"/>
         <v>9500</v>
       </c>
       <c r="G9" s="28"/>
@@ -817,14 +827,14 @@
         <v>45483</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="25">
         <v>3750</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26">
-        <f>E9-D10+C10</f>
+        <f t="shared" si="0"/>
         <v>13250</v>
       </c>
       <c r="G10" s="28"/>
@@ -840,14 +850,14 @@
         <v>45514</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="25">
         <v>3750</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26">
-        <f>E10-D11+C11</f>
+        <f t="shared" si="0"/>
         <v>17000</v>
       </c>
       <c r="G11" s="28"/>
@@ -861,14 +871,14 @@
         <v>45514</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="26">
         <v>3000</v>
       </c>
       <c r="E12" s="26">
-        <f>E11-D12+C12</f>
+        <f t="shared" si="0"/>
         <v>14000</v>
       </c>
       <c r="G12" s="28"/>
@@ -1073,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:O35"/>
+  <dimension ref="A5:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1100,7 @@
     <col min="8" max="8" width="15.7109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="9" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="9"/>
-    <col min="11" max="11" width="10" style="9" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="9" customWidth="1"/>
     <col min="14" max="14" width="29" style="4" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" style="13" customWidth="1"/>
   </cols>
@@ -1117,7 +1127,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C6" s="11">
         <v>29000</v>
@@ -1127,13 +1137,13 @@
         <v>2000</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="N6" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" s="31"/>
     </row>
@@ -1142,7 +1152,7 @@
         <v>45417</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C7" s="11">
         <v>9000</v>
@@ -1152,7 +1162,7 @@
         <v>150</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1161,7 +1171,7 @@
         <v>3000</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O7" s="15"/>
     </row>
@@ -1170,7 +1180,7 @@
         <v>45452</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11">
@@ -1180,7 +1190,7 @@
         <v>190</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="17">
         <v>21900</v>
@@ -1188,16 +1198,22 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="N8" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O8" s="15">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="11"/>
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>45519</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="11">
+        <v>16500</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11">
         <v>210</v>
@@ -1207,16 +1223,16 @@
       </c>
       <c r="I9" s="17">
         <f>C35</f>
-        <v>38000</v>
+        <v>54500</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="N9" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O9" s="15">
-        <f>800*6</f>
-        <v>4800</v>
+        <f>800*2</f>
+        <v>1600</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1228,10 +1244,11 @@
         <v>210</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="17">
-        <v>56100</v>
+        <f>O35</f>
+        <v>72400</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1251,7 +1268,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="N11" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O11" s="15">
         <v>2000</v>
@@ -1266,16 +1283,16 @@
         <v>200</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I12" s="17">
         <f>I8+I9-I10</f>
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="N12" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O12" s="15">
         <v>6000</v>
@@ -1286,13 +1303,15 @@
       <c r="B13" s="7"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="11">
+        <v>200</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="N13" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O13" s="15">
         <v>800</v>
@@ -1303,15 +1322,17 @@
       <c r="B14" s="7"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11">
+        <v>300</v>
+      </c>
       <c r="H14" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="17">
         <f>K7-I12</f>
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="15"/>
@@ -1327,11 +1348,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="N15" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O15" s="15">
-        <f>6000*8</f>
-        <v>48000</v>
+        <f>5000*8</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1347,12 +1368,16 @@
       <c r="J16" s="8"/>
       <c r="K16" s="17">
         <f>E35</f>
-        <v>3110</v>
-      </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3610</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="15">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="7"/>
       <c r="C17" s="11"/>
@@ -1362,10 +1387,15 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="15">
+        <f>5500*3</f>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="7"/>
       <c r="C18" s="11"/>
@@ -1378,7 +1408,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="7"/>
       <c r="C19" s="11"/>
@@ -1391,43 +1421,43 @@
       <c r="N19" s="14"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="7"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="H20" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="19">
         <f>K14-K16</f>
-        <v>-3910</v>
+        <v>-4610</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="7"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="H21" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="19">
         <f>K20/4</f>
-        <v>-977.5</v>
+        <v>-1152.5</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="7"/>
       <c r="C22" s="11"/>
@@ -1436,7 +1466,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="7"/>
       <c r="C23" s="11"/>
@@ -1445,7 +1475,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="7"/>
       <c r="C24" s="11"/>
@@ -1454,7 +1484,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="7"/>
       <c r="C25" s="11"/>
@@ -1462,8 +1492,12 @@
       <c r="E25" s="11"/>
       <c r="N25" s="14"/>
       <c r="O25" s="15"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25" s="32">
+        <f>C9+C7+C6</f>
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="7"/>
       <c r="C26" s="11"/>
@@ -1472,7 +1506,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="15"/>
     </row>
-    <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="7"/>
       <c r="C27" s="11"/>
@@ -1482,7 +1516,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="15"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="7"/>
       <c r="C28" s="11"/>
@@ -1491,7 +1525,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="15"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="7"/>
       <c r="C29" s="11"/>
@@ -1500,7 +1534,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="7"/>
       <c r="C30" s="11"/>
@@ -1509,7 +1543,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="11"/>
@@ -1518,7 +1552,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="11"/>
@@ -1548,11 +1582,11 @@
     <row r="35" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="10">
         <f>SUM(C6:C34)</f>
-        <v>38000</v>
+        <v>54500</v>
       </c>
       <c r="D35" s="10">
         <f t="shared" ref="D35:E35" si="0">SUM(D6:D34)</f>
@@ -1560,14 +1594,14 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" si="0"/>
-        <v>3110</v>
+        <v>3610</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O35" s="16">
         <f>SUM(O7:O34)</f>
-        <v>64100</v>
+        <v>72400</v>
       </c>
     </row>
   </sheetData>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C892041C-0E4F-44A4-B7CB-770DF860EA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB6FA91-1565-4961-A936-2164EA697A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -85,12 +85,6 @@
     <t>cocktail pair</t>
   </si>
   <si>
-    <t>cocktail 6 pices</t>
-  </si>
-  <si>
-    <t>Fisher Pair</t>
-  </si>
-  <si>
     <t>Green opaline + lotino pair</t>
   </si>
   <si>
@@ -163,7 +157,19 @@
     <t>I piece parblue</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3 Cremino females with DNA</t>
+    <t>Purchased 4 Creminos 8 months</t>
+  </si>
+  <si>
+    <t>cocktail 1 pices</t>
+  </si>
+  <si>
+    <t>2 Fisher Pair</t>
+  </si>
+  <si>
+    <t>2 Cremino females with DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Creminos </t>
   </si>
 </sst>
 </file>
@@ -348,6 +354,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,7 +364,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -643,14 +649,14 @@
   <dimension ref="A3:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="5" width="13.28515625" style="9" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -663,20 +669,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="G3" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="G3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -732,7 +738,7 @@
         <v>45458</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="26">
@@ -759,7 +765,7 @@
         <v>45460</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26">
@@ -793,7 +799,7 @@
         <v>45458</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="26">
@@ -827,7 +833,7 @@
         <v>45483</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="25">
         <v>3750</v>
@@ -850,7 +856,7 @@
         <v>45514</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="25">
         <v>3750</v>
@@ -871,7 +877,7 @@
         <v>45514</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="26">
@@ -1085,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1133,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="11">
         <v>29000</v>
@@ -1136,23 +1142,23 @@
       <c r="E6" s="11">
         <v>2000</v>
       </c>
-      <c r="H6" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="N6" s="31" t="s">
+      <c r="H6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="N6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="31"/>
+      <c r="O6" s="32"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45417</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="11">
         <v>9000</v>
@@ -1162,7 +1168,7 @@
         <v>150</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1180,7 +1186,7 @@
         <v>45452</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11">
@@ -1198,7 +1204,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="N8" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O8" s="15">
         <v>2500</v>
@@ -1209,7 +1215,7 @@
         <v>45519</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="11">
         <v>16500</v>
@@ -1223,32 +1229,37 @@
       </c>
       <c r="I9" s="17">
         <f>C35</f>
-        <v>54500</v>
+        <v>72500</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="N9" s="14" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="O9" s="15">
-        <f>800*2</f>
-        <v>1600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="6">
+        <v>45530</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="11">
+        <v>18000</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11">
         <v>210</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="17">
         <f>O35</f>
-        <v>72400</v>
+        <v>91600</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1268,10 +1279,10 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="N11" s="14" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="O11" s="15">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1283,19 +1294,19 @@
         <v>200</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I12" s="17">
         <f>I8+I9-I10</f>
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="N12" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O12" s="15">
-        <v>6000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1311,7 +1322,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="N13" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O13" s="15">
         <v>800</v>
@@ -1326,13 +1337,13 @@
         <v>300</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="17">
         <f>K7-I12</f>
-        <v>-1000</v>
+        <v>200</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="15"/>
@@ -1342,13 +1353,15 @@
       <c r="B15" s="7"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11">
+        <v>210</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="N15" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O15" s="15">
         <f>5000*8</f>
@@ -1368,13 +1381,13 @@
       <c r="J16" s="8"/>
       <c r="K16" s="17">
         <f>E35</f>
-        <v>3610</v>
+        <v>3820</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O16" s="15">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1388,11 +1401,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="N17" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O17" s="15">
-        <f>5500*3</f>
-        <v>16500</v>
+        <f>6000*2</f>
+        <v>12000</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1405,8 +1418,13 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="15"/>
+      <c r="N18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="15">
+        <f>6000*4</f>
+        <v>24000</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1428,13 +1446,13 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="H20" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="19">
         <f>K14-K16</f>
-        <v>-4610</v>
+        <v>-3620</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="15"/>
@@ -1446,13 +1464,13 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="H21" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="19">
         <f>K20/4</f>
-        <v>-1152.5</v>
+        <v>-905</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="15"/>
@@ -1492,7 +1510,7 @@
       <c r="E25" s="11"/>
       <c r="N25" s="14"/>
       <c r="O25" s="15"/>
-      <c r="R25" s="32">
+      <c r="R25" s="29">
         <f>C9+C7+C6</f>
         <v>54500</v>
       </c>
@@ -1582,11 +1600,11 @@
     <row r="35" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C35" s="10">
         <f>SUM(C6:C34)</f>
-        <v>54500</v>
+        <v>72500</v>
       </c>
       <c r="D35" s="10">
         <f t="shared" ref="D35:E35" si="0">SUM(D6:D34)</f>
@@ -1594,14 +1612,14 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" si="0"/>
-        <v>3610</v>
+        <v>3820</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O35" s="16">
         <f>SUM(O7:O34)</f>
-        <v>72400</v>
+        <v>91600</v>
       </c>
     </row>
   </sheetData>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB6FA91-1565-4961-A936-2164EA697A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94350DB-A269-4877-B8F2-18CFB207AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -157,9 +157,6 @@
     <t>I piece parblue</t>
   </si>
   <si>
-    <t>Purchased 4 Creminos 8 months</t>
-  </si>
-  <si>
     <t>cocktail 1 pices</t>
   </si>
   <si>
@@ -170,6 +167,36 @@
   </si>
   <si>
     <t xml:space="preserve">4 Creminos </t>
+  </si>
+  <si>
+    <t>purchased 4 decinos and 1 Albono</t>
+  </si>
+  <si>
+    <t>Purchased 4 Creminos 8 months from Fahad Bhittail colony</t>
+  </si>
+  <si>
+    <t>Purhcased 1 piece decino from market</t>
+  </si>
+  <si>
+    <t>Purhcased 1 piece Cremino from market</t>
+  </si>
+  <si>
+    <t>5 Decinos</t>
+  </si>
+  <si>
+    <t>Ref #</t>
+  </si>
+  <si>
+    <t>1 Albino female</t>
+  </si>
+  <si>
+    <t>1 Decino male</t>
+  </si>
+  <si>
+    <t>1 Cremino male</t>
+  </si>
+  <si>
+    <t>Valuation (from Sept to Dec)</t>
   </si>
 </sst>
 </file>
@@ -182,7 +209,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,14 +242,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -280,7 +299,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,13 +348,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -358,10 +374,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +665,7 @@
   <dimension ref="A3:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,20 +685,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="G3" s="30" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -691,7 +707,7 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -717,42 +733,42 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25">
         <v>16000</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26">
         <f>26000+10000-10000</f>
         <v>26000</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>45458</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25">
         <v>1000</v>
       </c>
-      <c r="E7" s="26">
-        <f t="shared" ref="E7:E12" si="0">E6-D7+C7</f>
+      <c r="E7" s="25">
+        <f t="shared" ref="E7:E13" si="0">E6-D7+C7</f>
         <v>15000</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
       <c r="N7" t="s">
         <v>8</v>
       </c>
@@ -761,25 +777,25 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>45460</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25">
         <v>500</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
       <c r="M8" t="s">
         <v>10</v>
       </c>
@@ -795,25 +811,25 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>45458</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26">
+      <c r="C9" s="24"/>
+      <c r="D9" s="25">
         <v>5000</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
       <c r="M9" t="s">
         <v>11</v>
       </c>
@@ -829,254 +845,263 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>45483</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>3750</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25">
         <f t="shared" si="0"/>
         <v>13250</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>45514</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>3750</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>45514</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25">
         <v>3000</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>45545</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="24">
+        <v>3750</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25">
+        <f t="shared" si="0"/>
+        <v>17750</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1089,543 +1114,948 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:R35"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="9"/>
-    <col min="11" max="11" width="11.7109375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="29" style="4" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="13.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="29" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="I3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="O3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+    </row>
+    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>45413</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="11">
-        <v>29000</v>
-      </c>
+      <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="17">
+        <f>E18</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="I5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="17">
+        <v>136600</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="O5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="N6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="32"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>45417</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="11">
-        <v>9000</v>
-      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="17">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="O6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="11">
-        <v>150</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="17">
-        <f>D35</f>
-        <v>3000</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>45452</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11">
-        <v>3000</v>
-      </c>
-      <c r="E8" s="11">
-        <v>190</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="17">
-        <v>21900</v>
-      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="I7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="17">
+        <v>136600</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="N8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="15">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>45519</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="11">
-        <v>16500</v>
-      </c>
+      <c r="L8" s="8"/>
+      <c r="O8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="11">
-        <v>210</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="17">
-        <f>C35</f>
-        <v>72500</v>
-      </c>
-      <c r="J9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="I9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="17">
+        <f>J5+J6-J7</f>
+        <v>0</v>
+      </c>
       <c r="K9" s="8"/>
-      <c r="N9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="15">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>45530</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="11">
-        <v>18000</v>
-      </c>
+      <c r="L9" s="8"/>
+      <c r="O9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="11">
-        <v>210</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="17">
-        <f>O35</f>
-        <v>91600</v>
-      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="11"/>
+      <c r="L10" s="8"/>
+      <c r="O10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>150</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="I11" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="N11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="15">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="11"/>
+      <c r="L11" s="17">
+        <f>L4-J9</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="11">
-        <v>200</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="17">
-        <f>I8+I9-I10</f>
-        <v>2800</v>
-      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="N12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="15">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="11"/>
+      <c r="L12" s="8"/>
+      <c r="O12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="15">
+        <f>5000*8</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>200</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="I13" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="N13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="15">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L13" s="17">
+        <f>F18</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="11">
-        <v>300</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="17">
-        <f>K7-I12</f>
-        <v>200</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="O14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="14">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="15">
+        <f>6000*2</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>210</v>
-      </c>
-      <c r="H15" s="8"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="N15" s="14" t="s">
+      <c r="L15" s="8"/>
+      <c r="O15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="14">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="15">
+        <f>6000*4</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="O16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="14">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="15">
+        <f>5000*5</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="I17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="18">
+        <f>L11-L13</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="14">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="10">
+        <f>SUM(D5:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <f>SUM(E5:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <f>SUM(F5:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="18">
+        <f>L17/4</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="14">
+        <v>105</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="14">
+        <v>106</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" s="14">
+        <v>107</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="O21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="16">
+        <f>SUM(Q4:Q20)</f>
+        <v>136600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="I24" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="O24" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+    </row>
+    <row r="25" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="17">
+        <f>E39</f>
+        <v>3000</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="15"/>
+    </row>
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>45413</v>
+      </c>
+      <c r="B26" s="14">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="11">
+        <v>29000</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="17">
+        <v>21900</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="O26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="15">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>45417</v>
+      </c>
+      <c r="B27" s="14">
+        <v>101</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="11">
+        <v>9000</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11">
+        <v>150</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="17">
+        <f>D39</f>
+        <v>113200</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="O27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>45452</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F28" s="11">
+        <v>190</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="17">
+        <f>Q42</f>
+        <v>136600</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>45519</v>
+      </c>
+      <c r="B29" s="14">
+        <v>102</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="11">
+        <v>16500</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11">
+        <v>210</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="O29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>45530</v>
+      </c>
+      <c r="B30" s="14">
+        <v>103</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="11">
+        <v>18000</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11">
+        <v>210</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="17">
+        <f>J26+J27-J28</f>
+        <v>-1500</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="O30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>45532</v>
+      </c>
+      <c r="B31" s="14">
+        <v>104</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="11">
+        <v>29000</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11">
+        <v>150</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="O31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>45536</v>
+      </c>
+      <c r="B32" s="14">
+        <v>105</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="11">
+        <v>3500</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11">
+        <v>200</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="17">
+        <f>L25-J30</f>
+        <v>4500</v>
+      </c>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="15"/>
+    </row>
+    <row r="33" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>45536</v>
+      </c>
+      <c r="B33" s="14">
+        <v>106</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="11">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11">
+        <v>200</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="O33" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="15">
+      <c r="P33" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="15">
         <f>5000*8</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="H16" s="8" t="s">
+    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>45536</v>
+      </c>
+      <c r="B34" s="14">
+        <v>107</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="11">
+        <v>4200</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11">
+        <v>300</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="17">
-        <f>E35</f>
-        <v>3820</v>
-      </c>
-      <c r="N16" s="14" t="s">
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="17">
+        <f>F39</f>
+        <v>4510</v>
+      </c>
+      <c r="O34" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="15">
+      <c r="P34" s="14"/>
+      <c r="Q34" s="15">
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="N17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="15">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11">
+        <v>210</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="O35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="14">
+        <v>102</v>
+      </c>
+      <c r="Q35" s="15">
         <f>6000*2</f>
         <v>12000</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="N18" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="15">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11">
+        <v>320</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="O36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" s="14">
+        <v>103</v>
+      </c>
+      <c r="Q36" s="15">
         <f>6000*4</f>
         <v>24000</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
-    </row>
-    <row r="20" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="H20" s="8" t="s">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11">
+        <v>220</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="O37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="14">
+        <v>104</v>
+      </c>
+      <c r="Q37" s="15">
+        <f>5000*5</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11">
+        <v>150</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="19">
-        <f>K14-K16</f>
-        <v>-3620</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
-    </row>
-    <row r="21" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="H21" s="8" t="s">
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="18">
+        <f>L32-L34</f>
+        <v>-10</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" s="14">
+        <v>104</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="10">
+        <f>SUM(D26:D38)</f>
+        <v>113200</v>
+      </c>
+      <c r="E39" s="10">
+        <f>SUM(E26:E38)</f>
+        <v>3000</v>
+      </c>
+      <c r="F39" s="10">
+        <f>SUM(F26:F38)</f>
+        <v>4510</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="19">
-        <f>K20/4</f>
-        <v>-905</v>
-      </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="15"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="15"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="15"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="15"/>
-      <c r="R25" s="29">
-        <f>C9+C7+C6</f>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="18">
+        <f>L38/4</f>
+        <v>-2.5</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P39" s="14">
+        <v>105</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O40" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P40" s="14">
+        <v>106</v>
+      </c>
+      <c r="Q40" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O41" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="14">
+        <v>107</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="O42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="16">
+        <f>SUM(Q25:Q41)</f>
+        <v>136600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T45" s="28">
+        <f>D29+D27+D26</f>
         <v>54500</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
-    </row>
-    <row r="27" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="K27" s="18"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="15"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="15"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="15"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="15"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="15"/>
-    </row>
-    <row r="35" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="10">
-        <f>SUM(C6:C34)</f>
-        <v>72500</v>
-      </c>
-      <c r="D35" s="10">
-        <f t="shared" ref="D35:E35" si="0">SUM(D6:D34)</f>
-        <v>3000</v>
-      </c>
-      <c r="E35" s="10">
-        <f t="shared" si="0"/>
-        <v>3820</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" s="16">
-        <f>SUM(O7:O34)</f>
-        <v>91600</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="N6:O6"/>
+  <mergeCells count="4">
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94350DB-A269-4877-B8F2-18CFB207AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA054CAC-4967-47DC-A794-01E3A88D1564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>1 Cremino male</t>
-  </si>
-  <si>
-    <t>Valuation (from Sept to Dec)</t>
   </si>
 </sst>
 </file>
@@ -665,7 +662,7 @@
   <dimension ref="A3:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A3:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,10 +1135,9 @@
     <col min="17" max="17" width="17.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
       <c r="I3" s="30" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
@@ -1178,7 +1174,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="17">
         <f>E18</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>18</v>
@@ -1188,18 +1184,28 @@
       </c>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="11"/>
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>45413</v>
+      </c>
+      <c r="B5" s="14">
+        <v>100</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11">
+        <v>29000</v>
+      </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11">
+        <v>2000</v>
+      </c>
       <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="17">
-        <v>136600</v>
+        <v>21900</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -1211,19 +1217,29 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="11"/>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>45417</v>
+      </c>
+      <c r="B6" s="14">
+        <v>101</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="11">
+        <v>9000</v>
+      </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11">
+        <v>150</v>
+      </c>
       <c r="I6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="17">
         <f>D18</f>
-        <v>0</v>
+        <v>113200</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -1236,16 +1252,25 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6">
+        <v>45452</v>
+      </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>190</v>
+      </c>
       <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="17">
+        <f>Q21</f>
         <v>136600</v>
       </c>
       <c r="K7" s="8"/>
@@ -1254,13 +1279,23 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="11"/>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>45519</v>
+      </c>
+      <c r="B8" s="14">
+        <v>102</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="11">
+        <v>16500</v>
+      </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="11">
+        <v>210</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1273,19 +1308,29 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11"/>
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>45530</v>
+      </c>
+      <c r="B9" s="14">
+        <v>103</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11">
+        <v>18000</v>
+      </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <v>210</v>
+      </c>
       <c r="I9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="17">
         <f>J5+J6-J7</f>
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1298,12 +1343,22 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="6">
+        <v>45532</v>
+      </c>
+      <c r="B10" s="14">
+        <v>104</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="11">
+        <v>29000</v>
+      </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11">
+        <v>150</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1316,13 +1371,24 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11"/>
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>45536</v>
+      </c>
+      <c r="B11" s="14">
+        <v>105</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="11">
+        <v>3500</v>
+      </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <f>200+200+300+210+320+220+150</f>
+        <v>1600</v>
+      </c>
       <c r="I11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1330,19 +1396,29 @@
       <c r="K11" s="8"/>
       <c r="L11" s="17">
         <f>L4-J9</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="11"/>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>45536</v>
+      </c>
+      <c r="B12" s="14">
+        <v>106</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4000</v>
+      </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11">
+        <v>240</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1358,11 +1434,19 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="11"/>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>45536</v>
+      </c>
+      <c r="B13" s="14">
+        <v>107</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4200</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="I13" s="8" t="s">
@@ -1372,7 +1456,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>0</v>
+        <v>4750</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>42</v>
@@ -1448,7 +1532,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="14"/>
       <c r="C17" s="7"/>
@@ -1462,7 +1546,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>53</v>
@@ -1474,7 +1558,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
@@ -1482,15 +1566,15 @@
       </c>
       <c r="D18" s="10">
         <f>SUM(D5:D17)</f>
-        <v>0</v>
+        <v>113200</v>
       </c>
       <c r="E18" s="10">
         <f>SUM(E5:E17)</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>0</v>
+        <v>4750</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>29</v>
@@ -1499,7 +1583,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>0</v>
+        <v>-62.5</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>54</v>
@@ -1511,7 +1595,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O19" s="14" t="s">
         <v>54</v>
       </c>
@@ -1522,7 +1606,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O20" s="14" t="s">
         <v>55</v>
       </c>
@@ -1533,7 +1617,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="O21" s="14" t="s">
         <v>20</v>
       </c>
@@ -1543,517 +1627,14 @@
         <v>136600</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="I24" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="O24" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-    </row>
-    <row r="25" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="17">
-        <f>E39</f>
-        <v>3000</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q25" s="15"/>
-    </row>
-    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>45413</v>
-      </c>
-      <c r="B26" s="14">
-        <v>100</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="11">
-        <v>29000</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11">
-        <v>2000</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="17">
-        <v>21900</v>
-      </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="O26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="15">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>45417</v>
-      </c>
-      <c r="B27" s="14">
-        <v>101</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="11">
-        <v>9000</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11">
-        <v>150</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="17">
-        <f>D39</f>
-        <v>113200</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="O27" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="15">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>45452</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11">
-        <v>3000</v>
-      </c>
-      <c r="F28" s="11">
-        <v>190</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="17">
-        <f>Q42</f>
-        <v>136600</v>
-      </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="15"/>
-    </row>
-    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>45519</v>
-      </c>
-      <c r="B29" s="14">
-        <v>102</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="11">
-        <v>16500</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11">
-        <v>210</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="O29" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="15">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>45530</v>
-      </c>
-      <c r="B30" s="14">
-        <v>103</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="11">
-        <v>18000</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11">
-        <v>210</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="17">
-        <f>J26+J27-J28</f>
-        <v>-1500</v>
-      </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="O30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="15">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>45532</v>
-      </c>
-      <c r="B31" s="14">
-        <v>104</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="11">
-        <v>29000</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11">
-        <v>150</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="O31" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="15">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>45536</v>
-      </c>
-      <c r="B32" s="14">
-        <v>105</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="11">
-        <v>3500</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11">
-        <v>200</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="17">
-        <f>L25-J30</f>
-        <v>4500</v>
-      </c>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="15"/>
-    </row>
-    <row r="33" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>45536</v>
-      </c>
-      <c r="B33" s="14">
-        <v>106</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="11">
-        <v>4000</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11">
-        <v>200</v>
-      </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="O33" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="P33" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="15">
-        <f>5000*8</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>45536</v>
-      </c>
-      <c r="B34" s="14">
-        <v>107</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="11">
-        <v>4200</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11">
-        <v>300</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="17">
-        <f>F39</f>
-        <v>4510</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="15">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11">
-        <v>210</v>
-      </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="O35" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="P35" s="14">
-        <v>102</v>
-      </c>
-      <c r="Q35" s="15">
-        <f>6000*2</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11">
-        <v>320</v>
-      </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="O36" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="P36" s="14">
-        <v>103</v>
-      </c>
-      <c r="Q36" s="15">
-        <f>6000*4</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11">
-        <v>220</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="O37" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="P37" s="14">
-        <v>104</v>
-      </c>
-      <c r="Q37" s="15">
-        <f>5000*5</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11">
-        <v>150</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="18">
-        <f>L32-L34</f>
-        <v>-10</v>
-      </c>
-      <c r="O38" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" s="14">
-        <v>104</v>
-      </c>
-      <c r="Q38" s="15">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="10">
-        <f>SUM(D26:D38)</f>
-        <v>113200</v>
-      </c>
-      <c r="E39" s="10">
-        <f>SUM(E26:E38)</f>
-        <v>3000</v>
-      </c>
-      <c r="F39" s="10">
-        <f>SUM(F26:F38)</f>
-        <v>4510</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="18">
-        <f>L38/4</f>
-        <v>-2.5</v>
-      </c>
-      <c r="O39" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" s="14">
-        <v>105</v>
-      </c>
-      <c r="Q39" s="15">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O40" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" s="14">
-        <v>106</v>
-      </c>
-      <c r="Q40" s="15">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O41" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P41" s="14">
-        <v>107</v>
-      </c>
-      <c r="Q41" s="15">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="O42" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="16">
-        <f>SUM(Q25:Q41)</f>
-        <v>136600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T45" s="28">
-        <f>D29+D27+D26</f>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T24" s="28">
+        <f>D8+D6+D5</f>
         <v>54500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="O24:Q24"/>
+  <mergeCells count="2">
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="O3:Q3"/>
   </mergeCells>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA054CAC-4967-47DC-A794-01E3A88D1564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8433D175-D14A-4FAF-9E50-933C296AF383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -662,7 +662,7 @@
   <dimension ref="A3:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,7 @@
         <v>1000</v>
       </c>
       <c r="E7" s="25">
-        <f t="shared" ref="E7:E13" si="0">E6-D7+C7</f>
+        <f t="shared" ref="E7:E14" si="0">E6-D7+C7</f>
         <v>15000</v>
       </c>
       <c r="G7" s="27"/>
@@ -927,12 +927,21 @@
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>45547</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="25">
+        <v>600</v>
+      </c>
+      <c r="E14" s="25">
+        <f t="shared" si="0"/>
+        <v>17150</v>
+      </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8433D175-D14A-4FAF-9E50-933C296AF383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B296889-76A0-491D-9AF9-7473C16E61F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>Gross Profit</t>
   </si>
   <si>
-    <t>Valuation (from May to August)</t>
-  </si>
-  <si>
     <t>Net Profit / month</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>1 Cremino male</t>
+  </si>
+  <si>
+    <t>Valuation (from May to Dec 24)</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -690,7 +690,7 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="G3" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -751,7 +751,7 @@
         <v>45458</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25">
@@ -778,7 +778,7 @@
         <v>45460</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25">
@@ -812,7 +812,7 @@
         <v>45458</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="25">
@@ -846,7 +846,7 @@
         <v>45483</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="24">
         <v>3750</v>
@@ -869,7 +869,7 @@
         <v>45514</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="24">
         <v>3750</v>
@@ -890,7 +890,7 @@
         <v>45514</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="25">
@@ -911,7 +911,7 @@
         <v>45545</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="24">
         <v>3750</v>
@@ -932,7 +932,7 @@
         <v>45547</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="25">
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,7 @@
   <sheetData>
     <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
       <c r="I3" s="30" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
@@ -1162,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
@@ -1189,7 +1189,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="15"/>
     </row>
@@ -1201,7 +1201,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="11">
         <v>29000</v>
@@ -1219,7 +1219,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="O5" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
@@ -1234,7 +1234,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="11">
         <v>9000</v>
@@ -1253,7 +1253,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="O6" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11">
@@ -1296,7 +1296,7 @@
         <v>102</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11">
         <v>16500</v>
@@ -1310,7 +1310,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="O8" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
@@ -1325,7 +1325,7 @@
         <v>103</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="11">
         <v>18000</v>
@@ -1359,7 +1359,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="11">
         <v>29000</v>
@@ -1388,7 +1388,7 @@
         <v>105</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="11">
         <v>3500</v>
@@ -1419,7 +1419,7 @@
         <v>106</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="11">
         <v>4000</v>
@@ -1433,7 +1433,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="O12" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P12" s="14">
         <v>100</v>
@@ -1451,13 +1451,15 @@
         <v>107</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="11">
         <v>4200</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="11">
+        <v>240</v>
+      </c>
       <c r="I13" s="8" t="s">
         <v>15</v>
       </c>
@@ -1465,10 +1467,10 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>4750</v>
+        <v>4990</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
@@ -1487,7 +1489,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="O14" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P14" s="14">
         <v>102</v>
@@ -1509,7 +1511,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="O15" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P15" s="14">
         <v>103</v>
@@ -1531,7 +1533,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="O16" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P16" s="14">
         <v>104</v>
@@ -1555,10 +1557,10 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-250</v>
+        <v>-490</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P17" s="14">
         <v>104</v>
@@ -1583,19 +1585,19 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>4750</v>
+        <v>4990</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-62.5</v>
+        <v>-122.5</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P18" s="14">
         <v>105</v>
@@ -1606,7 +1608,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O19" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P19" s="14">
         <v>106</v>
@@ -1617,7 +1619,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O20" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P20" s="14">
         <v>107</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B296889-76A0-491D-9AF9-7473C16E61F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE7DD42-1880-4EC1-A6E9-9F13DACDBD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Valuation (from May to Dec 24)</t>
+  </si>
+  <si>
+    <t>To Stanger on Bike Lift</t>
   </si>
 </sst>
 </file>
@@ -661,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +761,7 @@
         <v>1000</v>
       </c>
       <c r="E7" s="25">
-        <f t="shared" ref="E7:E14" si="0">E6-D7+C7</f>
+        <f t="shared" ref="E7:E15" si="0">E6-D7+C7</f>
         <v>15000</v>
       </c>
       <c r="G7" s="27"/>
@@ -948,12 +951,21 @@
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>45562</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="D15" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="25">
+        <f t="shared" si="0"/>
+        <v>16150</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -1122,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE7DD42-1880-4EC1-A6E9-9F13DACDBD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF492E6-A4E1-4EF4-B168-0F8DC3F73CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>To Stanger on Bike Lift</t>
+  </si>
+  <si>
+    <t>Paid to Hassan Ex Class teacher Miss shahnaz via easy paisa</t>
   </si>
 </sst>
 </file>
@@ -664,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +764,7 @@
         <v>1000</v>
       </c>
       <c r="E7" s="25">
-        <f t="shared" ref="E7:E15" si="0">E6-D7+C7</f>
+        <f t="shared" ref="E7:E16" si="0">E6-D7+C7</f>
         <v>15000</v>
       </c>
       <c r="G7" s="27"/>
@@ -972,12 +975,21 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>45562</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="D16" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="25">
+        <f t="shared" si="0"/>
+        <v>15150</v>
+      </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -1134,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1491,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>4990</v>
+        <v>5240</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1495,7 +1507,9 @@
       <c r="C14" s="7"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>250</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1569,7 +1583,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-490</v>
+        <v>-740</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1597,7 +1611,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>4990</v>
+        <v>5240</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1606,7 +1620,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-122.5</v>
+        <v>-185</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF492E6-A4E1-4EF4-B168-0F8DC3F73CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECB3337-E7D0-442C-81FB-F4E442FF37FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1147,7 +1147,7 @@
   <dimension ref="A3:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1482,8 @@
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11">
-        <v>240</v>
+        <f>240+250+260+200</f>
+        <v>950</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>15</v>
@@ -1491,7 +1492,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>5240</v>
+        <v>5700</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1507,9 +1508,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11">
-        <v>250</v>
-      </c>
+      <c r="F14" s="11"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1583,7 +1582,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-740</v>
+        <v>-1200</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1611,7 +1610,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>5240</v>
+        <v>5700</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1620,7 +1619,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-185</v>
+        <v>-300</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECB3337-E7D0-442C-81FB-F4E442FF37FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF9F805-B233-4E0B-81DC-E49B7BFB148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1147,7 +1147,7 @@
   <dimension ref="A3:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,7 +1492,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>5700</v>
+        <v>6050</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1508,7 +1508,9 @@
       <c r="C14" s="7"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>350</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1582,7 +1584,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-1200</v>
+        <v>-1550</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1610,7 +1612,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>5700</v>
+        <v>6050</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1619,7 +1621,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-300</v>
+        <v>-387.5</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF9F805-B233-4E0B-81DC-E49B7BFB148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0BB7D5-363B-472E-8F9B-936A9BCFBE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1147,7 +1147,7 @@
   <dimension ref="A3:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,7 +1492,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>6050</v>
+        <v>6300</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1532,7 +1532,10 @@
       <c r="C15" s="7"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11">
+        <f>150+50+30+20</f>
+        <v>250</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1584,7 +1587,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-1550</v>
+        <v>-1800</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1612,7 +1615,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>6050</v>
+        <v>6300</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1621,7 +1624,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-387.5</v>
+        <v>-450</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0BB7D5-363B-472E-8F9B-936A9BCFBE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6172CEE2-D71A-403B-B9E7-E21D56FB7D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Paid to Hassan Ex Class teacher Miss shahnaz via easy paisa</t>
+  </si>
+  <si>
+    <t>To abdul hameed madarsa for chatai</t>
+  </si>
+  <si>
+    <t>randomly paid</t>
   </si>
 </sst>
 </file>
@@ -668,7 +674,7 @@
   <dimension ref="A3:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +770,7 @@
         <v>1000</v>
       </c>
       <c r="E7" s="25">
-        <f t="shared" ref="E7:E16" si="0">E6-D7+C7</f>
+        <f t="shared" ref="E7:E18" si="0">E6-D7+C7</f>
         <v>15000</v>
       </c>
       <c r="G7" s="27"/>
@@ -996,24 +1002,42 @@
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>45609</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="0"/>
+        <v>13650</v>
+      </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>45609</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25">
+        <v>400</v>
+      </c>
+      <c r="E18" s="25">
+        <f t="shared" si="0"/>
+        <v>13250</v>
+      </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -1021,11 +1045,11 @@
       <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -1033,11 +1057,11 @@
       <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -1045,11 +1069,11 @@
       <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -1057,39 +1081,39 @@
       <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -1147,7 +1171,7 @@
   <dimension ref="A3:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F14" sqref="F14:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,8 +1506,8 @@
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11">
-        <f>240+250+260+200</f>
-        <v>950</v>
+        <f>240+250+260+200+350+250+510</f>
+        <v>2060</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>15</v>
@@ -1492,7 +1516,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>6300</v>
+        <v>6810</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1508,9 +1532,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11">
-        <v>350</v>
-      </c>
+      <c r="F14" s="11"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1532,10 +1554,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="11">
-        <f>150+50+30+20</f>
-        <v>250</v>
-      </c>
+      <c r="F15" s="11"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1587,7 +1606,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-1800</v>
+        <v>-2310</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1615,7 +1634,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>6300</v>
+        <v>6810</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1624,7 +1643,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-450</v>
+        <v>-577.5</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6172CEE2-D71A-403B-B9E7-E21D56FB7D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33406A20-0215-446F-8ED1-0F609C7419E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,7 +1516,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>6810</v>
+        <v>7060</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1532,7 +1532,9 @@
       <c r="C14" s="7"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>250</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1606,7 +1608,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-2310</v>
+        <v>-2560</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1634,7 +1636,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>6810</v>
+        <v>7060</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1643,7 +1645,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-577.5</v>
+        <v>-640</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33406A20-0215-446F-8ED1-0F609C7419E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AECBC9-095C-46E2-BE3A-2EF5B240D5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -206,6 +206,21 @@
   </si>
   <si>
     <t>randomly paid</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Given to kamran asif brother</t>
   </si>
 </sst>
 </file>
@@ -674,7 +689,7 @@
   <dimension ref="A3:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +785,7 @@
         <v>1000</v>
       </c>
       <c r="E7" s="25">
-        <f t="shared" ref="E7:E18" si="0">E6-D7+C7</f>
+        <f t="shared" ref="E7:E21" si="0">E6-D7+C7</f>
         <v>15000</v>
       </c>
       <c r="G7" s="27"/>
@@ -881,7 +896,7 @@
         <v>45514</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C11" s="24">
         <v>3750</v>
@@ -923,7 +938,7 @@
         <v>45545</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C13" s="24">
         <v>3750</v>
@@ -1044,36 +1059,63 @@
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="24"/>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>45609</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="24">
+        <v>3750</v>
+      </c>
       <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="25">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="24"/>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>45609</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="24">
+        <v>3750</v>
+      </c>
       <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="25">
+        <f t="shared" si="0"/>
+        <v>20750</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>45626</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="D21" s="25">
+        <v>15000</v>
+      </c>
+      <c r="E21" s="25">
+        <f t="shared" si="0"/>
+        <v>5750</v>
+      </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -1171,7 +1213,7 @@
   <dimension ref="A3:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,8 +1548,8 @@
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11">
-        <f>240+250+260+200+350+250+510</f>
-        <v>2060</v>
+        <f>240+250+260+200+350+250+510+600</f>
+        <v>2660</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>15</v>
@@ -1516,7 +1558,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>7060</v>
+        <v>7660</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1608,7 +1650,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-2560</v>
+        <v>-3160</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1636,7 +1678,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>7060</v>
+        <v>7660</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1645,7 +1687,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-640</v>
+        <v>-790</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AECBC9-095C-46E2-BE3A-2EF5B240D5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C38160C-C66F-4F55-9872-951B57549EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
     <sheet name="Parrots" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -688,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,7 +1558,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>7660</v>
+        <v>8210</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1575,7 +1575,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1650,7 +1650,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-3160</v>
+        <v>-3710</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>7660</v>
+        <v>8210</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1687,7 +1687,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-790</v>
+        <v>-927.5</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C38160C-C66F-4F55-9872-951B57549EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF57D8-7F50-4496-B3D0-90D2D48DB9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Given to kamran asif brother</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -688,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +788,7 @@
         <v>1000</v>
       </c>
       <c r="E7" s="25">
-        <f t="shared" ref="E7:E21" si="0">E6-D7+C7</f>
+        <f t="shared" ref="E7:E22" si="0">E6-D7+C7</f>
         <v>15000</v>
       </c>
       <c r="G7" s="27"/>
@@ -1122,12 +1125,21 @@
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="24"/>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>45639</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="24">
+        <v>3750</v>
+      </c>
       <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="E22" s="25">
+        <f t="shared" si="0"/>
+        <v>9500</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
@@ -1212,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,7 +1570,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>8210</v>
+        <v>9210</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1598,7 +1610,9 @@
       <c r="C15" s="7"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11">
+        <v>1000</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1650,7 +1664,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-3710</v>
+        <v>-4710</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1678,7 +1692,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>8210</v>
+        <v>9210</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1687,7 +1701,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-927.5</v>
+        <v>-1177.5</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF57D8-7F50-4496-B3D0-90D2D48DB9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5371D8-E40E-464F-BDE7-C845BFF436F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H46" sqref="H45:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1570,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>9210</v>
+        <v>10210</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1611,7 +1611,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1664,7 +1664,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-4710</v>
+        <v>-5710</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>9210</v>
+        <v>10210</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1701,7 +1701,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-1177.5</v>
+        <v>-1427.5</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5371D8-E40E-464F-BDE7-C845BFF436F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2436F9-E09A-4971-8167-B836E37BBB8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H46" sqref="H45:H46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,9 +1358,7 @@
         <v>42</v>
       </c>
       <c r="P6" s="14"/>
-      <c r="Q6" s="15">
-        <v>800</v>
-      </c>
+      <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1382,7 +1380,7 @@
       </c>
       <c r="J7" s="17">
         <f>Q21</f>
-        <v>136600</v>
+        <v>135800</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -1441,7 +1439,7 @@
       </c>
       <c r="J9" s="17">
         <f>J5+J6-J7</f>
-        <v>-1500</v>
+        <v>-700</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1507,7 +1505,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="17">
         <f>L4-J9</f>
-        <v>4500</v>
+        <v>3700</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -1570,7 +1568,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>10210</v>
+        <v>10660</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1587,7 +1585,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1664,7 +1662,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-5710</v>
+        <v>-6960</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1692,7 +1690,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>10210</v>
+        <v>10660</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1701,7 +1699,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-1427.5</v>
+        <v>-1740</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>
@@ -1742,7 +1740,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="16">
         <f>SUM(Q4:Q20)</f>
-        <v>136600</v>
+        <v>135800</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2436F9-E09A-4971-8167-B836E37BBB8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDF2867-CC56-4236-8F1C-A9F8CC24F68D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1225,7 +1225,7 @@
   <dimension ref="A3:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1568,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>10660</v>
+        <v>11160</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1609,7 +1609,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1662,7 +1662,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-6960</v>
+        <v>-7460</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>10660</v>
+        <v>11160</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1699,7 +1699,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-1740</v>
+        <v>-1865</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDF2867-CC56-4236-8F1C-A9F8CC24F68D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DA5F01-01E4-43E2-834B-AD5896B8AE4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
     <sheet name="Parrots" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
   </si>
 </sst>
 </file>
@@ -691,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,19 +1147,37 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="24"/>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>45670</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="24">
+        <v>3750</v>
+      </c>
       <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="24"/>
+      <c r="E23" s="25">
+        <f t="shared" ref="E23:E24" si="1">E22-D23+C23</f>
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>45701</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="24">
+        <v>3750</v>
+      </c>
       <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="25">
+        <f t="shared" si="1"/>
+        <v>17000</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
@@ -1224,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DA5F01-01E4-43E2-834B-AD5896B8AE4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74CFF41-4FC2-4AFE-BCD6-918A74877C67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <t>1 Cremino male</t>
   </si>
   <si>
-    <t>Valuation (from May to Dec 24)</t>
-  </si>
-  <si>
     <t>To Stanger on Bike Lift</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>Feb</t>
+  </si>
+  <si>
+    <t>Valuation (from May to May 25)</t>
   </si>
 </sst>
 </file>
@@ -332,7 +332,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,6 +412,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -697,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +908,7 @@
         <v>45514</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="24">
         <v>3750</v>
@@ -947,7 +950,7 @@
         <v>45545</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="24">
         <v>3750</v>
@@ -989,7 +992,7 @@
         <v>45562</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="25">
@@ -1010,7 +1013,7 @@
         <v>45562</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25">
@@ -1031,7 +1034,7 @@
         <v>45609</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25">
@@ -1052,7 +1055,7 @@
         <v>45609</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25">
@@ -1073,7 +1076,7 @@
         <v>45609</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="24">
         <v>3750</v>
@@ -1094,7 +1097,7 @@
         <v>45609</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="24">
         <v>3750</v>
@@ -1115,7 +1118,7 @@
         <v>45626</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="25">
@@ -1136,7 +1139,7 @@
         <v>45639</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="24">
         <v>3750</v>
@@ -1152,7 +1155,7 @@
         <v>45670</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="24">
         <v>3750</v>
@@ -1168,7 +1171,7 @@
         <v>45701</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="24">
         <v>3750</v>
@@ -1248,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1275,7 @@
   <sheetData>
     <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
       <c r="I3" s="30" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
@@ -1334,7 +1337,7 @@
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
-        <v>2000</v>
+        <v>11160</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>16</v>
@@ -1367,7 +1370,10 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
-        <v>150</v>
+        <v>500</v>
+      </c>
+      <c r="G6" s="32">
+        <v>45705</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>13</v>
@@ -1396,9 +1402,7 @@
       <c r="E7" s="11">
         <v>3000</v>
       </c>
-      <c r="F7" s="11">
-        <v>190</v>
-      </c>
+      <c r="F7" s="11"/>
       <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1426,9 +1430,7 @@
         <v>16500</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="11">
-        <v>210</v>
-      </c>
+      <c r="F8" s="11"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1455,9 +1457,7 @@
         <v>18000</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="11">
-        <v>210</v>
-      </c>
+      <c r="F9" s="11"/>
       <c r="I9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1489,9 +1489,7 @@
         <v>29000</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="11">
-        <v>150</v>
-      </c>
+      <c r="F10" s="11"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1518,10 +1516,7 @@
         <v>3500</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="11">
-        <f>200+200+300+210+320+220+150</f>
-        <v>1600</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="I11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1549,9 +1544,7 @@
         <v>4000</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="11">
-        <v>240</v>
-      </c>
+      <c r="F12" s="11"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1581,10 +1574,7 @@
         <v>4200</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="11">
-        <f>240+250+260+200+350+250+510+600</f>
-        <v>2660</v>
-      </c>
+      <c r="F13" s="11"/>
       <c r="I13" s="8" t="s">
         <v>15</v>
       </c>
@@ -1592,7 +1582,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>11160</v>
+        <v>11660</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1608,9 +1598,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11">
-        <v>1250</v>
-      </c>
+      <c r="F14" s="11"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1632,9 +1620,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="11">
-        <v>2500</v>
-      </c>
+      <c r="F15" s="11"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1686,7 +1672,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-7460</v>
+        <v>-7960</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1714,7 +1700,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>11160</v>
+        <v>11660</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1723,7 +1709,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-1865</v>
+        <v>-1990</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74CFF41-4FC2-4AFE-BCD6-918A74877C67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FF172D-2894-4F7A-BCB0-0764FE015B6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,6 +404,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,9 +415,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -721,20 +721,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="G3" s="29" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="G3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1252,7 +1252,7 @@
   <dimension ref="A3:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,17 +1274,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="O3" s="31" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="O3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1370,9 +1370,9 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
-        <v>500</v>
-      </c>
-      <c r="G6" s="32">
+        <v>580</v>
+      </c>
+      <c r="G6" s="29">
         <v>45705</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -1402,7 +1402,12 @@
       <c r="E7" s="11">
         <v>3000</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11">
+        <v>510</v>
+      </c>
+      <c r="G7" s="29">
+        <v>45715</v>
+      </c>
       <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1582,7 +1587,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>11660</v>
+        <v>12250</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>
@@ -1672,7 +1677,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-7960</v>
+        <v>-8550</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>52</v>
@@ -1700,7 +1705,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>11660</v>
+        <v>12250</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1709,7 +1714,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-1990</v>
+        <v>-2137.5</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>53</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FF172D-2894-4F7A-BCB0-0764FE015B6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271E4F32-0200-4FC5-B328-B58E428DF79E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,19 +1182,37 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="24"/>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>45724</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="24">
+        <v>5000</v>
+      </c>
       <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+      <c r="E25" s="25">
+        <f t="shared" ref="E25:E26" si="2">E24-D25+C25</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>45724</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>58</v>
+      </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="D26" s="25">
+        <v>550</v>
+      </c>
+      <c r="E26" s="25">
+        <f t="shared" si="2"/>
+        <v>21450</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -1251,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271E4F32-0200-4FC5-B328-B58E428DF79E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B299FE-23C8-4C63-B696-7B49BE0B42AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -46,24 +46,9 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Zakat</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>For Charity Every Month Target</t>
-  </si>
-  <si>
-    <t>For Zakar Every Month Target</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -230,6 +215,12 @@
   </si>
   <si>
     <t>Valuation (from May to May 25)</t>
+  </si>
+  <si>
+    <t>Paid to Darul Uloom online for Palastine Zakat fund</t>
+  </si>
+  <si>
+    <t>ZAKAT for 2024</t>
   </si>
 </sst>
 </file>
@@ -303,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -326,13 +317,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,7 +448,22 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,8 +767,9 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="5" width="13.28515625" style="9" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="3.42578125" customWidth="1"/>
@@ -720,21 +777,30 @@
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="G3" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="G3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -752,23 +818,8 @@
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="24"/>
@@ -776,13 +827,20 @@
       <c r="E6" s="25">
         <v>16000</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26">
-        <f>26000+10000-10000</f>
-        <v>26000</v>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -790,7 +848,7 @@
         <v>45458</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25">
@@ -800,24 +858,21 @@
         <f t="shared" ref="E7:E22" si="0">E6-D7+C7</f>
         <v>15000</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="N7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
+        <f>26000+10000-10000</f>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>45460</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25">
@@ -827,31 +882,29 @@
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="G8" s="19">
+        <v>45363</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>63</v>
+      </c>
       <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="2">
-        <v>3000</v>
-      </c>
-      <c r="O8">
-        <v>10</v>
-      </c>
-      <c r="P8" s="3">
-        <f>O8*N8</f>
-        <v>30000</v>
-      </c>
+      <c r="J8" s="11">
+        <v>20000</v>
+      </c>
+      <c r="K8" s="11">
+        <f>K7-J8</f>
+        <v>6000</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>45458</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="25">
@@ -864,28 +917,17 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="M9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="2">
-        <v>2600</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-      <c r="P9" s="3">
-        <f>O9*N9</f>
-        <v>26000</v>
-      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>45483</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" s="24">
         <v>3750</v>
@@ -898,8 +940,8 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
     </row>
@@ -908,7 +950,7 @@
         <v>45514</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C11" s="24">
         <v>3750</v>
@@ -921,15 +963,15 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>45514</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="25">
@@ -942,15 +984,15 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>45545</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C13" s="24">
         <v>3750</v>
@@ -963,15 +1005,15 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>45547</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="25">
@@ -984,15 +1026,15 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>45562</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="25">
@@ -1005,15 +1047,15 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>45562</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25">
@@ -1026,15 +1068,15 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>45609</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25">
@@ -1047,15 +1089,15 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>45609</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25">
@@ -1068,15 +1110,15 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>45609</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C19" s="24">
         <v>3750</v>
@@ -1089,15 +1131,15 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>45609</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C20" s="24">
         <v>3750</v>
@@ -1110,15 +1152,15 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>45626</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="25">
@@ -1131,15 +1173,15 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>45639</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C22" s="24">
         <v>3750</v>
@@ -1149,13 +1191,18 @@
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>45670</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C23" s="24">
         <v>3750</v>
@@ -1171,7 +1218,7 @@
         <v>45701</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C24" s="24">
         <v>3750</v>
@@ -1187,14 +1234,14 @@
         <v>45724</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C25" s="24">
         <v>5000</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25">
-        <f t="shared" ref="E25:E26" si="2">E24-D25+C25</f>
+        <f t="shared" ref="E25:E27" si="2">E24-D25+C25</f>
         <v>22000</v>
       </c>
     </row>
@@ -1203,7 +1250,7 @@
         <v>45724</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="25">
@@ -1214,12 +1261,21 @@
         <v>21450</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>45724</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="C27" s="22"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="20">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="25">
+        <f t="shared" si="2"/>
+        <v>19450</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -1257,11 +1313,13 @@
       <c r="E32" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1269,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,39 +1350,39 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="I3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="O3" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
+      <c r="I3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="O3" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1333,10 +1391,10 @@
         <v>3000</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="15"/>
     </row>
@@ -1348,7 +1406,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11">
         <v>29000</v>
@@ -1358,7 +1416,7 @@
         <v>11160</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J5" s="17">
         <v>21900</v>
@@ -1366,7 +1424,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="O5" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
@@ -1381,7 +1439,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11">
         <v>9000</v>
@@ -1394,7 +1452,7 @@
         <v>45705</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J6" s="17">
         <f>D18</f>
@@ -1403,7 +1461,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="O6" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
@@ -1414,20 +1472,20 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11">
         <v>3000</v>
       </c>
       <c r="F7" s="11">
-        <v>510</v>
+        <v>790</v>
       </c>
       <c r="G7" s="29">
         <v>45715</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J7" s="17">
         <f>Q21</f>
@@ -1447,19 +1505,22 @@
         <v>102</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D8" s="11">
         <v>16500</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="11">
+        <v>560</v>
+      </c>
+      <c r="G8" s="28"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="O8" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
@@ -1474,7 +1535,7 @@
         <v>103</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11">
         <v>18000</v>
@@ -1482,7 +1543,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="I9" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J9" s="17">
         <f>J5+J6-J7</f>
@@ -1491,7 +1552,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="O9" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
@@ -1506,7 +1567,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" s="11">
         <v>29000</v>
@@ -1518,7 +1579,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="O10" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
@@ -1533,7 +1594,7 @@
         <v>105</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D11" s="11">
         <v>3500</v>
@@ -1541,7 +1602,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="I11" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1561,7 +1622,7 @@
         <v>106</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D12" s="11">
         <v>4000</v>
@@ -1573,7 +1634,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="O12" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P12" s="14">
         <v>100</v>
@@ -1591,7 +1652,7 @@
         <v>107</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D13" s="11">
         <v>4200</v>
@@ -1599,16 +1660,16 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="I13" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>12250</v>
+        <v>13090</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
@@ -1627,7 +1688,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="O14" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P14" s="14">
         <v>102</v>
@@ -1649,7 +1710,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="O15" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P15" s="14">
         <v>103</v>
@@ -1671,7 +1732,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="O16" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P16" s="14">
         <v>104</v>
@@ -1689,16 +1750,16 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="I17" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-8550</v>
+        <v>-9390</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P17" s="14">
         <v>104</v>
@@ -1711,7 +1772,7 @@
       <c r="A18" s="8"/>
       <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D18" s="10">
         <f>SUM(D5:D17)</f>
@@ -1723,19 +1784,19 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>12250</v>
+        <v>13090</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-2137.5</v>
+        <v>-2347.5</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P18" s="14">
         <v>105</v>
@@ -1746,7 +1807,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O19" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P19" s="14">
         <v>106</v>
@@ -1757,7 +1818,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O20" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P20" s="14">
         <v>107</v>
@@ -1768,7 +1829,7 @@
     </row>
     <row r="21" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="O21" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="16">

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B299FE-23C8-4C63-B696-7B49BE0B42AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2609295-80FE-4CD7-BCF6-B1D4B89C142F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>ZAKAT for 2024</t>
+  </si>
+  <si>
+    <t>Paid to Darul Uloom online for Jamia zakat</t>
   </si>
 </sst>
 </file>
@@ -756,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +902,7 @@
       <c r="N8" s="2"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>45458</v>
       </c>
@@ -914,11 +917,20 @@
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="G9" s="19">
+        <v>45369</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>65</v>
+      </c>
       <c r="I9" s="27"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="J9" s="11">
+        <v>6000</v>
+      </c>
+      <c r="K9" s="11">
+        <f>K8-J9</f>
+        <v>0</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="P9" s="3"/>
     </row>
@@ -1241,7 +1253,7 @@
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25">
-        <f t="shared" ref="E25:E27" si="2">E24-D25+C25</f>
+        <f t="shared" ref="E25:E28" si="2">E24-D25+C25</f>
         <v>22000</v>
       </c>
     </row>
@@ -1268,8 +1280,8 @@
       <c r="B27" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="20">
+      <c r="C27" s="24"/>
+      <c r="D27" s="25">
         <v>2000</v>
       </c>
       <c r="E27" s="25">
@@ -1277,26 +1289,53 @@
         <v>19450</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>45734</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" si="2"/>
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>45735</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25">
+        <v>500</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" ref="E29:E30" si="3">E28-D29+C29</f>
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>45735</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25">
+        <v>1500</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="3"/>
+        <v>16450</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -1327,7 +1366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2609295-80FE-4CD7-BCF6-B1D4B89C142F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3264640-7FF8-4D3A-A422-B90AF3A1E36A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
-    <sheet name="Parrots" sheetId="1" r:id="rId2"/>
+    <sheet name="Zakat calculator" sheetId="3" r:id="rId2"/>
+    <sheet name="Parrots" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -224,6 +225,42 @@
   </si>
   <si>
     <t>Paid to Darul Uloom online for Jamia zakat</t>
+  </si>
+  <si>
+    <t>Zakat 2025</t>
+  </si>
+  <si>
+    <t>Ramzan</t>
+  </si>
+  <si>
+    <t>20 Ramzan</t>
+  </si>
+  <si>
+    <t>Cash in Bank</t>
+  </si>
+  <si>
+    <t>Cash in Hand</t>
+  </si>
+  <si>
+    <t>Cash in easy paisa</t>
+  </si>
+  <si>
+    <t>Cash in Jazz cash</t>
+  </si>
+  <si>
+    <t>Loan to AH baloch</t>
+  </si>
+  <si>
+    <t>Parrots worth</t>
+  </si>
+  <si>
+    <t>Outside cash</t>
+  </si>
+  <si>
+    <t>Loan due from  off</t>
+  </si>
+  <si>
+    <t>Charity due</t>
   </si>
 </sst>
 </file>
@@ -289,12 +326,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -376,7 +419,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,6 +518,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -759,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,6 +833,8 @@
     <col min="12" max="12" width="3.42578125" customWidth="1"/>
     <col min="13" max="13" width="28.42578125" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -820,6 +877,12 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5">
+        <v>12000</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
@@ -1317,7 +1380,7 @@
         <v>500</v>
       </c>
       <c r="E29" s="25">
-        <f t="shared" ref="E29:E30" si="3">E28-D29+C29</f>
+        <f t="shared" ref="E29:E31" si="3">E28-D29+C29</f>
         <v>17950</v>
       </c>
     </row>
@@ -1337,12 +1400,21 @@
         <v>16450</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>45735</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" si="3"/>
+        <v>15450</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -1363,11 +1435,157 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBC700F-DBF1-4063-BC53-5A8DA71507AB}">
+  <dimension ref="E4:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="40">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="41">
+        <v>278564</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="41">
+        <v>25350</v>
+      </c>
+      <c r="I11">
+        <v>577614</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="41">
+        <v>1174</v>
+      </c>
+      <c r="I12">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="41">
+        <v>360</v>
+      </c>
+      <c r="I13">
+        <f>I12+I11</f>
+        <v>578564</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="41">
+        <v>15000</v>
+      </c>
+      <c r="I14">
+        <f>I13-300000</f>
+        <v>278564</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="42">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="41">
+        <f>SUM(F10:F15)</f>
+        <v>385448</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="41">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="41">
+        <v>15450</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="28">
+        <f>F16-F18-F19</f>
+        <v>357998</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="43">
+        <f>F20*2.5%</f>
+        <v>8949.9500000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1798,9 @@
         <v>18000</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <v>900</v>
+      </c>
       <c r="I9" s="8" t="s">
         <v>19</v>
       </c>
@@ -1705,7 +1925,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>13090</v>
+        <v>13990</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>36</v>
@@ -1795,7 +2015,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-9390</v>
+        <v>-10290</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>47</v>
@@ -1823,7 +2043,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>13090</v>
+        <v>13990</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>23</v>
@@ -1832,7 +2052,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-2347.5</v>
+        <v>-2572.5</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>48</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3264640-7FF8-4D3A-A422-B90AF3A1E36A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7F6166-A6E8-43B1-9B6D-F377BB48B8EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -257,23 +257,39 @@
     <t>Outside cash</t>
   </si>
   <si>
-    <t>Loan due from  off</t>
-  </si>
-  <si>
     <t>Charity due</t>
+  </si>
+  <si>
+    <t>Less Loan due from Adnan</t>
+  </si>
+  <si>
+    <t>Less necessary expenses within 2 months</t>
+  </si>
+  <si>
+    <t>Gold worth 1,276,969 @ Rs 319,000</t>
+  </si>
+  <si>
+    <t>Less Loan due from office</t>
+  </si>
+  <si>
+    <t>Total Worth</t>
+  </si>
+  <si>
+    <t>Zakat 2.5%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,19 +341,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -419,7 +437,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,6 +515,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,18 +538,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -547,6 +576,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514948</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>77000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5700E764-A2DC-49FA-91C1-8350B84DA127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381875" y="161925"/>
+          <a:ext cx="4286848" cy="5734850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -814,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,29 +916,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="G3" s="32" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="G3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1436,147 +1514,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBC700F-DBF1-4063-BC53-5A8DA71507AB}">
-  <dimension ref="E4:I22"/>
+  <dimension ref="E4:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E4" s="38" t="s">
+    <row r="4" spans="5:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E4" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="39" t="s">
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="5:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="E5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F5" s="41">
         <v>45737</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="39" t="s">
+    <row r="6" spans="5:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="E6" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F6" s="40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="41"/>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="7" spans="5:7" ht="42" x14ac:dyDescent="0.35">
+      <c r="E7" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="46">
+        <v>1276969</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="E8" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F8" s="43">
         <v>278564</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+    <row r="9" spans="5:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="E9" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F9" s="43">
         <v>25350</v>
       </c>
-      <c r="I11">
-        <v>577614</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    </row>
+    <row r="10" spans="5:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="E10" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F10" s="43">
         <v>1174</v>
       </c>
-      <c r="I12">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+    </row>
+    <row r="11" spans="5:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="E11" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F11" s="43">
         <v>360</v>
       </c>
-      <c r="I13">
-        <f>I12+I11</f>
-        <v>578564</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    </row>
+    <row r="12" spans="5:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="E12" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F12" s="43">
         <v>15000</v>
       </c>
-      <c r="I14">
-        <f>I13-300000</f>
-        <v>278564</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    </row>
+    <row r="13" spans="5:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="E13" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="42">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="41">
-        <f>SUM(F10:F15)</f>
-        <v>385448</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="41"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+      <c r="F13" s="43">
+        <v>66000</v>
+      </c>
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" spans="5:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="E14" s="42"/>
+      <c r="F14" s="43">
+        <f>SUM(F7:F13)</f>
+        <v>1663417</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="5:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="E16" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="43">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="E17" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="41">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+      <c r="F17" s="43">
+        <v>15450</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="E18" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="41">
-        <v>15450</v>
+      <c r="F18" s="43">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="E19" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="46">
+        <v>100000</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="28">
-        <f>F16-F18-F19</f>
-        <v>357998</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="43">
-        <f>F20*2.5%</f>
-        <v>8949.9500000000007</v>
-      </c>
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" spans="5:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="E21" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="43">
+        <f>F14-F16-F17-F18-F19</f>
+        <v>1500967</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="E23" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="43">
+        <f>F21*2.5%</f>
+        <v>37524.175000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1585,7 +1686,7 @@
   <dimension ref="A3:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,17 +1708,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="O3" s="37" t="s">
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="O3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1832,7 +1933,12 @@
         <v>29000</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11">
+        <v>1650</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1925,7 +2031,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>13990</v>
+        <v>15640</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>36</v>
@@ -2015,7 +2121,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-10290</v>
+        <v>-11940</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>47</v>
@@ -2043,7 +2149,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>13990</v>
+        <v>15640</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>23</v>
@@ -2052,7 +2158,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-2572.5</v>
+        <v>-2985</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>48</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7F6166-A6E8-43B1-9B6D-F377BB48B8EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1DEDA8-1779-4C54-8F9F-4205068A0DD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -437,7 +437,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,13 +492,9 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -518,27 +514,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -556,8 +531,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -892,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,29 +912,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="G3" s="34" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="G3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -947,7 +943,7 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -964,11 +960,11 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23">
         <v>16000</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -991,20 +987,20 @@
       <c r="A7" s="19">
         <v>45458</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23">
         <v>1000</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <f t="shared" ref="E7:E22" si="0">E6-D7+C7</f>
         <v>15000</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11">
         <f>26000+10000-10000</f>
@@ -1015,24 +1011,24 @@
       <c r="A8" s="19">
         <v>45460</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25">
+      <c r="C8" s="22"/>
+      <c r="D8" s="23">
         <v>500</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
       <c r="G8" s="19">
         <v>45363</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="27"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="11">
         <v>20000</v>
       </c>
@@ -1047,24 +1043,24 @@
       <c r="A9" s="19">
         <v>45458</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25">
+      <c r="C9" s="22"/>
+      <c r="D9" s="23">
         <v>5000</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
       <c r="G9" s="19">
         <v>45369</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="27"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="11">
         <v>6000</v>
       </c>
@@ -1079,20 +1075,20 @@
       <c r="A10" s="19">
         <v>45483</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>3750</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
         <f t="shared" si="0"/>
         <v>13250</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="M10" s="3"/>
@@ -1102,20 +1098,20 @@
       <c r="A11" s="19">
         <v>45514</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>3750</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
     </row>
@@ -1123,20 +1119,20 @@
       <c r="A12" s="19">
         <v>45514</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25">
+      <c r="C12" s="22"/>
+      <c r="D12" s="23">
         <v>3000</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
@@ -1144,20 +1140,20 @@
       <c r="A13" s="19">
         <v>45545</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <v>3750</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23">
         <f t="shared" si="0"/>
         <v>17750</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
@@ -1165,20 +1161,20 @@
       <c r="A14" s="19">
         <v>45547</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23">
         <v>600</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="23">
         <f t="shared" si="0"/>
         <v>17150</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
     </row>
@@ -1186,20 +1182,20 @@
       <c r="A15" s="19">
         <v>45562</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25">
+      <c r="C15" s="22"/>
+      <c r="D15" s="23">
         <v>1000</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="23">
         <f t="shared" si="0"/>
         <v>16150</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
@@ -1207,20 +1203,20 @@
       <c r="A16" s="19">
         <v>45562</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25">
+      <c r="C16" s="22"/>
+      <c r="D16" s="23">
         <v>1000</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <f t="shared" si="0"/>
         <v>15150</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
@@ -1228,20 +1224,20 @@
       <c r="A17" s="19">
         <v>45609</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25">
+      <c r="C17" s="22"/>
+      <c r="D17" s="23">
         <v>1500</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="23">
         <f t="shared" si="0"/>
         <v>13650</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
@@ -1249,20 +1245,20 @@
       <c r="A18" s="19">
         <v>45609</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23">
         <v>400</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="23">
         <f t="shared" si="0"/>
         <v>13250</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
@@ -1270,20 +1266,20 @@
       <c r="A19" s="19">
         <v>45609</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>3750</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
@@ -1291,20 +1287,20 @@
       <c r="A20" s="19">
         <v>45609</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="22">
         <v>3750</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23">
         <f t="shared" si="0"/>
         <v>20750</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
@@ -1312,20 +1308,20 @@
       <c r="A21" s="19">
         <v>45626</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25">
+      <c r="C21" s="22"/>
+      <c r="D21" s="23">
         <v>15000</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <f t="shared" si="0"/>
         <v>5750</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
     </row>
@@ -1333,20 +1329,20 @@
       <c r="A22" s="19">
         <v>45639</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <v>3750</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23">
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
@@ -1354,14 +1350,14 @@
       <c r="A23" s="19">
         <v>45670</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="22">
         <v>3750</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23">
         <f t="shared" ref="E23:E24" si="1">E22-D23+C23</f>
         <v>13250</v>
       </c>
@@ -1370,14 +1366,14 @@
       <c r="A24" s="19">
         <v>45701</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <v>3750</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23">
         <f t="shared" si="1"/>
         <v>17000</v>
       </c>
@@ -1386,14 +1382,14 @@
       <c r="A25" s="19">
         <v>45724</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <v>5000</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23">
         <f t="shared" ref="E25:E28" si="2">E24-D25+C25</f>
         <v>22000</v>
       </c>
@@ -1402,14 +1398,14 @@
       <c r="A26" s="19">
         <v>45724</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25">
+      <c r="C26" s="22"/>
+      <c r="D26" s="23">
         <v>550</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="23">
         <f t="shared" si="2"/>
         <v>21450</v>
       </c>
@@ -1418,14 +1414,14 @@
       <c r="A27" s="19">
         <v>45724</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25">
+      <c r="C27" s="22"/>
+      <c r="D27" s="23">
         <v>2000</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="23">
         <f t="shared" si="2"/>
         <v>19450</v>
       </c>
@@ -1434,14 +1430,14 @@
       <c r="A28" s="19">
         <v>45734</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25">
+      <c r="C28" s="22"/>
+      <c r="D28" s="23">
         <v>1000</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="23">
         <f t="shared" si="2"/>
         <v>18450</v>
       </c>
@@ -1450,14 +1446,14 @@
       <c r="A29" s="19">
         <v>45735</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25">
+      <c r="C29" s="22"/>
+      <c r="D29" s="23">
         <v>500</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="23">
         <f t="shared" ref="E29:E31" si="3">E28-D29+C29</f>
         <v>17950</v>
       </c>
@@ -1466,14 +1462,14 @@
       <c r="A30" s="19">
         <v>45735</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25">
+      <c r="C30" s="22"/>
+      <c r="D30" s="23">
         <v>1500</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="23">
         <f t="shared" si="3"/>
         <v>16450</v>
       </c>
@@ -1482,24 +1478,33 @@
       <c r="A31" s="19">
         <v>45735</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25">
+      <c r="C31" s="22"/>
+      <c r="D31" s="23">
         <v>1000</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="23">
         <f t="shared" si="3"/>
         <v>15450</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>45735</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="C32" s="22"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="23">
+        <v>200</v>
+      </c>
+      <c r="E32" s="23">
+        <f t="shared" ref="E32" si="4">E31-D32+C32</f>
+        <v>15250</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1514,162 +1519,164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBC700F-DBF1-4063-BC53-5A8DA71507AB}">
-  <dimension ref="E4:G25"/>
+  <dimension ref="E4:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="41.140625" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E4" s="48" t="s">
+    <row r="4" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E4" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="48"/>
-    </row>
-    <row r="5" spans="5:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="E5" s="40" t="s">
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="32">
         <v>45737</v>
       </c>
     </row>
-    <row r="6" spans="5:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="E6" s="40" t="s">
+    <row r="6" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E6" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="5:7" ht="42" x14ac:dyDescent="0.35">
-      <c r="E7" s="45" t="s">
+    <row r="7" spans="5:8" ht="42" x14ac:dyDescent="0.35">
+      <c r="E7" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="37">
         <v>1276969</v>
       </c>
     </row>
-    <row r="8" spans="5:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="E8" s="42" t="s">
+    <row r="8" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E8" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="34">
         <v>278564</v>
       </c>
     </row>
-    <row r="9" spans="5:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="E9" s="42" t="s">
+    <row r="9" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E9" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="34">
         <v>25350</v>
       </c>
     </row>
-    <row r="10" spans="5:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="E10" s="42" t="s">
+    <row r="10" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E10" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="34">
         <v>1174</v>
       </c>
     </row>
-    <row r="11" spans="5:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="E11" s="42" t="s">
+    <row r="11" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E11" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="34">
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="5:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="E12" s="42" t="s">
+    <row r="12" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E12" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="34">
         <v>15000</v>
       </c>
     </row>
-    <row r="13" spans="5:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="E13" s="42" t="s">
+    <row r="13" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E13" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="43">
-        <v>66000</v>
-      </c>
-      <c r="G13" s="44"/>
-    </row>
-    <row r="14" spans="5:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="E14" s="42"/>
-      <c r="F14" s="43">
+      <c r="F13" s="34">
+        <v>60000</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E14" s="33"/>
+      <c r="F14" s="34">
         <f>SUM(F7:F13)</f>
-        <v>1663417</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="31"/>
-    </row>
-    <row r="16" spans="5:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="E16" s="42" t="s">
+        <v>1657417</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E16" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="34">
         <v>12000</v>
       </c>
     </row>
     <row r="17" spans="5:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="34">
         <v>15450</v>
       </c>
     </row>
     <row r="18" spans="5:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="34">
         <v>35000</v>
       </c>
     </row>
     <row r="19" spans="5:6" ht="42" x14ac:dyDescent="0.25">
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="37">
         <v>100000</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="32"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="5:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="34">
         <f>F14-F16-F17-F18-F19</f>
-        <v>1500967</v>
+        <v>1494967</v>
       </c>
     </row>
     <row r="23" spans="5:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="34">
         <f>F21*2.5%</f>
-        <v>37524.175000000003</v>
+        <v>37374.175000000003</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="32"/>
+      <c r="F25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1685,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,17 +1715,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="O3" s="39" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="O3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1806,7 +1813,7 @@
       <c r="F6" s="11">
         <v>580</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="27">
         <v>45705</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -1839,7 +1846,7 @@
       <c r="F7" s="11">
         <v>790</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="27">
         <v>45715</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -1872,7 +1879,7 @@
       <c r="F8" s="11">
         <v>560</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="26"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1934,7 +1941,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
@@ -1965,7 +1972,10 @@
         <v>3500</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>500</v>
+      </c>
+      <c r="G11" s="26"/>
       <c r="I11" s="8" t="s">
         <v>22</v>
       </c>
@@ -2031,7 +2041,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>15640</v>
+        <v>15990</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>36</v>
@@ -2121,7 +2131,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-11940</v>
+        <v>-12290</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>47</v>
@@ -2149,7 +2159,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>15640</v>
+        <v>15990</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>23</v>
@@ -2158,7 +2168,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-2985</v>
+        <v>-3072.5</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>48</v>
@@ -2203,7 +2213,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T24" s="28">
+      <c r="T24" s="26">
         <f>D8+D6+D5</f>
         <v>54500</v>
       </c>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1DEDA8-1779-4C54-8F9F-4205068A0DD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915435D6-D870-49BD-A63A-89BBC32A8303}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakat &amp; Charity" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -886,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBFECC-9CC3-430A-BC83-D7B871F092FF}">
-  <dimension ref="A3:P32"/>
+  <dimension ref="A3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,6 +1504,22 @@
       <c r="E32" s="23">
         <f t="shared" ref="E32" si="4">E31-D32+C32</f>
         <v>15250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>45735</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23">
+        <v>50</v>
+      </c>
+      <c r="E33" s="23">
+        <f t="shared" ref="E33" si="5">E32-D33+C33</f>
+        <v>15200</v>
       </c>
     </row>
   </sheetData>
@@ -1692,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1989,8 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11">
-        <v>500</v>
+        <f>500+300</f>
+        <v>800</v>
       </c>
       <c r="G11" s="26"/>
       <c r="I11" s="8" t="s">
@@ -2041,7 +2058,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>15990</v>
+        <v>16290</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>36</v>
@@ -2131,7 +2148,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-12290</v>
+        <v>-12590</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>47</v>
@@ -2159,7 +2176,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>15990</v>
+        <v>16290</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>23</v>
@@ -2168,7 +2185,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-3072.5</v>
+        <v>-3147.5</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>48</v>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915435D6-D870-49BD-A63A-89BBC32A8303}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D3BFFB-0D64-41C7-8B86-0B125B6ECDBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -71,9 +71,6 @@
     <t>cocktail pair</t>
   </si>
   <si>
-    <t>Green opaline + lotino pair</t>
-  </si>
-  <si>
     <t>Total Value (Market Value)</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>2 Fisher chicks</t>
-  </si>
-  <si>
     <t>COGS</t>
   </si>
   <si>
@@ -116,12 +110,6 @@
     <t>Sold Cocktail female with 2 chicks</t>
   </si>
   <si>
-    <t>Lotino pair</t>
-  </si>
-  <si>
-    <t>8 pieces Albino red eyes</t>
-  </si>
-  <si>
     <t>July</t>
   </si>
   <si>
@@ -137,21 +125,6 @@
     <t>Purchased 3 Cremino females with DNA 8 months (DOB 1 Dec 23)</t>
   </si>
   <si>
-    <t>I piece parblue</t>
-  </si>
-  <si>
-    <t>cocktail 1 pices</t>
-  </si>
-  <si>
-    <t>2 Fisher Pair</t>
-  </si>
-  <si>
-    <t>2 Cremino females with DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Creminos </t>
-  </si>
-  <si>
     <t>purchased 4 decinos and 1 Albono</t>
   </si>
   <si>
@@ -164,21 +137,9 @@
     <t>Purhcased 1 piece Cremino from market</t>
   </si>
   <si>
-    <t>5 Decinos</t>
-  </si>
-  <si>
     <t>Ref #</t>
   </si>
   <si>
-    <t>1 Albino female</t>
-  </si>
-  <si>
-    <t>1 Decino male</t>
-  </si>
-  <si>
-    <t>1 Cremino male</t>
-  </si>
-  <si>
     <t>To Stanger on Bike Lift</t>
   </si>
   <si>
@@ -276,6 +237,24 @@
   </si>
   <si>
     <t>Zakat 2.5%</t>
+  </si>
+  <si>
+    <t>Lotino 3 pieces</t>
+  </si>
+  <si>
+    <t>3 birds</t>
+  </si>
+  <si>
+    <t>5 birds</t>
+  </si>
+  <si>
+    <t>2 birds</t>
+  </si>
+  <si>
+    <t>4 birds</t>
+  </si>
+  <si>
+    <t>2 Fisher + albino</t>
   </si>
 </sst>
 </file>
@@ -920,7 +899,7 @@
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
       <c r="G3" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
@@ -929,7 +908,7 @@
     </row>
     <row r="4" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G4" s="41" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
@@ -953,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="P5">
         <v>12000</v>
@@ -988,7 +967,7 @@
         <v>45458</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="23">
@@ -1012,7 +991,7 @@
         <v>45460</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="23">
@@ -1026,7 +1005,7 @@
         <v>45363</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="11">
@@ -1044,7 +1023,7 @@
         <v>45458</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="23">
@@ -1058,7 +1037,7 @@
         <v>45369</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="11">
@@ -1076,7 +1055,7 @@
         <v>45483</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="22">
         <v>3750</v>
@@ -1099,7 +1078,7 @@
         <v>45514</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C11" s="22">
         <v>3750</v>
@@ -1120,7 +1099,7 @@
         <v>45514</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="23">
@@ -1141,7 +1120,7 @@
         <v>45545</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C13" s="22">
         <v>3750</v>
@@ -1162,7 +1141,7 @@
         <v>45547</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="23">
@@ -1183,7 +1162,7 @@
         <v>45562</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="23">
@@ -1204,7 +1183,7 @@
         <v>45562</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="23">
@@ -1225,7 +1204,7 @@
         <v>45609</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="23">
@@ -1246,7 +1225,7 @@
         <v>45609</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="23">
@@ -1267,7 +1246,7 @@
         <v>45609</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C19" s="22">
         <v>3750</v>
@@ -1288,7 +1267,7 @@
         <v>45609</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C20" s="22">
         <v>3750</v>
@@ -1309,7 +1288,7 @@
         <v>45626</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="23">
@@ -1330,7 +1309,7 @@
         <v>45639</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C22" s="22">
         <v>3750</v>
@@ -1351,7 +1330,7 @@
         <v>45670</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C23" s="22">
         <v>3750</v>
@@ -1367,7 +1346,7 @@
         <v>45701</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C24" s="22">
         <v>3750</v>
@@ -1383,7 +1362,7 @@
         <v>45724</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C25" s="22">
         <v>5000</v>
@@ -1399,7 +1378,7 @@
         <v>45724</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="23">
@@ -1415,7 +1394,7 @@
         <v>45724</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="23">
@@ -1431,7 +1410,7 @@
         <v>45734</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="23">
@@ -1447,7 +1426,7 @@
         <v>45735</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="23">
@@ -1463,7 +1442,7 @@
         <v>45735</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="23">
@@ -1479,7 +1458,7 @@
         <v>45735</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="23">
@@ -1495,7 +1474,7 @@
         <v>45735</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="23">
@@ -1511,7 +1490,7 @@
         <v>45735</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="23">
@@ -1550,7 +1529,7 @@
   <sheetData>
     <row r="4" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E4" s="44" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F4" s="44"/>
     </row>
@@ -1564,15 +1543,15 @@
     </row>
     <row r="6" spans="5:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="31" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="5:8" ht="42" x14ac:dyDescent="0.35">
       <c r="E7" s="36" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F7" s="37">
         <v>1276969</v>
@@ -1580,7 +1559,7 @@
     </row>
     <row r="8" spans="5:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E8" s="33" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F8" s="34">
         <v>278564</v>
@@ -1588,7 +1567,7 @@
     </row>
     <row r="9" spans="5:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E9" s="33" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F9" s="34">
         <v>25350</v>
@@ -1596,7 +1575,7 @@
     </row>
     <row r="10" spans="5:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E10" s="33" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F10" s="34">
         <v>1174</v>
@@ -1604,7 +1583,7 @@
     </row>
     <row r="11" spans="5:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E11" s="33" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F11" s="34">
         <v>360</v>
@@ -1612,7 +1591,7 @@
     </row>
     <row r="12" spans="5:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E12" s="33" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F12" s="34">
         <v>15000</v>
@@ -1620,7 +1599,7 @@
     </row>
     <row r="13" spans="5:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E13" s="33" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F13" s="34">
         <v>60000</v>
@@ -1640,7 +1619,7 @@
     </row>
     <row r="16" spans="5:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E16" s="33" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F16" s="34">
         <v>12000</v>
@@ -1648,7 +1627,7 @@
     </row>
     <row r="17" spans="5:6" ht="21" x14ac:dyDescent="0.35">
       <c r="E17" s="33" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F17" s="34">
         <v>15450</v>
@@ -1656,7 +1635,7 @@
     </row>
     <row r="18" spans="5:6" ht="21" x14ac:dyDescent="0.35">
       <c r="E18" s="33" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F18" s="34">
         <v>35000</v>
@@ -1664,7 +1643,7 @@
     </row>
     <row r="19" spans="5:6" ht="42" x14ac:dyDescent="0.25">
       <c r="E19" s="38" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F19" s="37">
         <v>100000</v>
@@ -1675,7 +1654,7 @@
     </row>
     <row r="21" spans="5:6" ht="21" x14ac:dyDescent="0.35">
       <c r="E21" s="33" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F21" s="34">
         <f>F14-F16-F17-F18-F19</f>
@@ -1684,7 +1663,7 @@
     </row>
     <row r="23" spans="5:6" ht="21" x14ac:dyDescent="0.35">
       <c r="E23" s="33" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F23" s="34">
         <f>F21*2.5%</f>
@@ -1706,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:T24"/>
+  <dimension ref="A3:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,7 +1711,7 @@
   <sheetData>
     <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
       <c r="I3" s="45" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J3" s="45"/>
       <c r="K3" s="45"/>
@@ -1748,7 +1727,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
@@ -1763,19 +1742,19 @@
         <v>10</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="17">
         <f>E18</f>
-        <v>3000</v>
+        <v>10100</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="15"/>
     </row>
@@ -1787,7 +1766,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="11">
         <v>29000</v>
@@ -1805,11 +1784,11 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="O5" s="14" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
-        <v>2500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1820,7 +1799,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="11">
         <v>9000</v>
@@ -1841,9 +1820,7 @@
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="O6" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
     </row>
@@ -1853,7 +1830,7 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11">
@@ -1866,11 +1843,11 @@
         <v>45715</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" s="17">
         <f>Q21</f>
-        <v>135800</v>
+        <v>23800</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -1886,7 +1863,7 @@
         <v>102</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" s="11">
         <v>16500</v>
@@ -1901,11 +1878,11 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="O8" s="14" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
-        <v>4000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1916,7 +1893,7 @@
         <v>103</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D9" s="11">
         <v>18000</v>
@@ -1926,21 +1903,17 @@
         <v>900</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J9" s="17">
         <f>J5+J6-J7</f>
-        <v>-700</v>
+        <v>111300</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="O9" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="15">
-        <v>5000</v>
-      </c>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -1950,7 +1923,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D10" s="11">
         <v>29000</v>
@@ -1967,11 +1940,11 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="O10" s="14" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
-        <v>800</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1982,7 +1955,7 @@
         <v>105</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D11" s="11">
         <v>3500</v>
@@ -1994,13 +1967,13 @@
       </c>
       <c r="G11" s="26"/>
       <c r="I11" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="17">
         <f>L4-J9</f>
-        <v>3700</v>
+        <v>-101200</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -2014,26 +1987,25 @@
         <v>106</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D12" s="11">
         <v>4000</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11">
+        <v>250</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="O12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="14">
-        <v>100</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P12" s="14"/>
       <c r="Q12" s="15">
-        <f>5000*8</f>
-        <v>40000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -2044,7 +2016,7 @@
         <v>107</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D13" s="11">
         <v>4200</v>
@@ -2058,14 +2030,14 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>16290</v>
+        <v>16540</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
-        <v>2500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2073,21 +2045,20 @@
       <c r="B14" s="14"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11">
+        <v>7100</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="O14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="14">
-        <v>102</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P14" s="14"/>
       <c r="Q14" s="15">
-        <f>6000*2</f>
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2102,14 +2073,11 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="O15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" s="14">
-        <v>103</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P15" s="14"/>
       <c r="Q15" s="15">
-        <f>6000*4</f>
-        <v>24000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2123,16 +2091,9 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="O16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" s="14">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="15">
-        <f>5000*5</f>
-        <v>25000</v>
-      </c>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -2142,29 +2103,23 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="I17" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-12590</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" s="14">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="15">
-        <v>4000</v>
-      </c>
+        <v>-117740</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="10">
         <f>SUM(D5:D17)</f>
@@ -2172,67 +2127,80 @@
       </c>
       <c r="E18" s="10">
         <f>SUM(E5:E17)</f>
-        <v>3000</v>
+        <v>10100</v>
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>16290</v>
+        <v>16540</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-3147.5</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="P18" s="14">
-        <v>105</v>
-      </c>
-      <c r="Q18" s="15">
-        <v>5000</v>
-      </c>
+        <v>-29435</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O19" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="14">
-        <v>106</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>5000</v>
-      </c>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="15"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" s="14">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="15">
-        <v>6000</v>
-      </c>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="O21" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="16">
         <f>SUM(Q4:Q20)</f>
-        <v>135800</v>
+        <v>23800</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D24" s="12">
+        <f>D18+F18</f>
+        <v>129740</v>
+      </c>
       <c r="T24" s="26">
         <f>D8+D6+D5</f>
         <v>54500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D25" s="12">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="12">
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="12">
+        <f>D24-D25-D26</f>
+        <v>95840</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D28" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D29" s="12">
+        <f>D27-D28</f>
+        <v>80840</v>
       </c>
     </row>
   </sheetData>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D3BFFB-0D64-41C7-8B86-0B125B6ECDBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292A9E28-4A0A-467B-AA28-D3AD8B3470D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -239,9 +239,6 @@
     <t>Zakat 2.5%</t>
   </si>
   <si>
-    <t>Lotino 3 pieces</t>
-  </si>
-  <si>
     <t>3 birds</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
   </si>
   <si>
     <t>4 birds</t>
-  </si>
-  <si>
-    <t>2 Fisher + albino</t>
   </si>
 </sst>
 </file>
@@ -1687,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,7 +1742,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="17">
         <f>E18</f>
-        <v>10100</v>
+        <v>20100</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>13</v>
@@ -1783,13 +1777,9 @@
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="O5" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="15">
-        <v>1800</v>
-      </c>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -1847,7 +1837,7 @@
       </c>
       <c r="J7" s="17">
         <f>Q21</f>
-        <v>23800</v>
+        <v>20500</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -1877,13 +1867,9 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="O8" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="O8" s="14"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="15">
-        <v>1500</v>
-      </c>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -1907,7 +1893,7 @@
       </c>
       <c r="J9" s="17">
         <f>J5+J6-J7</f>
-        <v>111300</v>
+        <v>114600</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1940,7 +1926,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="O10" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
@@ -1973,7 +1959,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="17">
         <f>L4-J9</f>
-        <v>-101200</v>
+        <v>-94500</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -2001,7 +1987,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="O12" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
@@ -2022,7 +2008,9 @@
         <v>4200</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="11">
+        <v>100</v>
+      </c>
       <c r="I13" s="8" t="s">
         <v>10</v>
       </c>
@@ -2030,10 +2018,10 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>16540</v>
+        <v>16640</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
@@ -2054,7 +2042,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="O14" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
@@ -2066,14 +2054,16 @@
       <c r="B15" s="14"/>
       <c r="C15" s="7"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11">
+        <v>10000</v>
+      </c>
       <c r="F15" s="11"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="O15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
@@ -2109,7 +2099,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-117740</v>
+        <v>-111140</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -2127,11 +2117,11 @@
       </c>
       <c r="E18" s="10">
         <f>SUM(E5:E17)</f>
-        <v>10100</v>
+        <v>20100</v>
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>16540</v>
+        <v>16640</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>21</v>
@@ -2140,7 +2130,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-29435</v>
+        <v>-27785</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -2163,13 +2153,13 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="16">
         <f>SUM(Q4:Q20)</f>
-        <v>23800</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D24" s="12">
         <f>D18+F18</f>
-        <v>129740</v>
+        <v>129840</v>
       </c>
       <c r="T24" s="26">
         <f>D8+D6+D5</f>
@@ -2189,7 +2179,7 @@
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D27" s="12">
         <f>D24-D25-D26</f>
-        <v>95840</v>
+        <v>95940</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2200,7 +2190,7 @@
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D29" s="12">
         <f>D27-D28</f>
-        <v>80840</v>
+        <v>80940</v>
       </c>
     </row>
   </sheetData>

--- a/PES/Rehan/Rehan.xlsx
+++ b/PES/Rehan/Rehan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292A9E28-4A0A-467B-AA28-D3AD8B3470D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51584253-C39A-41B0-B7D5-9BA332B537DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1682,7 +1682,7 @@
   <dimension ref="A3:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,7 +2018,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="17">
         <f>F18</f>
-        <v>16640</v>
+        <v>17140</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>72</v>
@@ -2036,7 +2036,9 @@
       <c r="E14" s="11">
         <v>7100</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>500</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -2099,7 +2101,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="18">
         <f>L11-L13</f>
-        <v>-111140</v>
+        <v>-111640</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -2121,7 +2123,7 @@
       </c>
       <c r="F18" s="10">
         <f>SUM(F5:F17)</f>
-        <v>16640</v>
+        <v>17140</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>21</v>
@@ -2130,7 +2132,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="18">
         <f>L17/4</f>
-        <v>-27785</v>
+        <v>-27910</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -2159,7 +2161,7 @@
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D24" s="12">
         <f>D18+F18</f>
-        <v>129840</v>
+        <v>130340</v>
       </c>
       <c r="T24" s="26">
         <f>D8+D6+D5</f>
@@ -2179,7 +2181,7 @@
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D27" s="12">
         <f>D24-D25-D26</f>
-        <v>95940</v>
+        <v>96440</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2190,7 +2192,7 @@
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D29" s="12">
         <f>D27-D28</f>
-        <v>80940</v>
+        <v>81440</v>
       </c>
     </row>
   </sheetData>
